--- a/Outputs/1. Budget/Grid Search/Output Files/400000/Output_2_30.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/400000/Output_2_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2273813.295892364</v>
+        <v>2231989.514223358</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>460545.8926584664</v>
+        <v>460545.8926584667</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8768687.110075586</v>
+        <v>8768687.110075582</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7157835.312387683</v>
+        <v>7157835.312387682</v>
       </c>
     </row>
     <row r="11">
@@ -706,28 +706,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V2" t="n">
-        <v>241.0142888776591</v>
+        <v>68.21015448122992</v>
       </c>
       <c r="W2" t="n">
-        <v>200.160833108852</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -737,28 +737,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>15.42067328920988</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0.7465913262578567</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -800,13 +800,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>145.4467082856156</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -819,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -828,7 +828,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>228.9768674197207</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -916,10 +916,10 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -940,10 +940,10 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
         <v>209.0200695862453</v>
@@ -952,10 +952,10 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>87.7061602166668</v>
       </c>
       <c r="V5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -974,10 +974,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -992,10 +992,10 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
         <v>0.7465913262578567</v>
@@ -1022,28 +1022,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>175.5171288722966</v>
+        <v>187.9349160205893</v>
       </c>
     </row>
     <row r="7">
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1095,7 +1095,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -1119,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>108.1960350243787</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1141,10 +1141,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>57.16776090941368</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G8" t="n">
         <v>15.30273751513505</v>
@@ -1153,10 +1153,10 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1177,13 +1177,13 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1198,10 +1198,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>220.6450016938488</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1211,7 +1211,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -1223,19 +1223,19 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1265,22 +1265,22 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>55.06699186198225</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X9" t="n">
-        <v>196.5224065022248</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1296,7 +1296,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1332,7 +1332,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1381,16 +1381,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>89.71287907890073</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H11" t="n">
         <v>327.0451232326991</v>
       </c>
       <c r="I11" t="n">
-        <v>163.6851955497072</v>
+        <v>28.40213875363775</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1423,7 +1423,7 @@
         <v>181.3631617334038</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1451,25 +1451,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
         <v>136.6941370086349</v>
       </c>
       <c r="H12" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>67.03858805571424</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1505,13 +1505,13 @@
         <v>197.5472709665096</v>
       </c>
       <c r="U12" t="n">
-        <v>225.8986597023843</v>
+        <v>193.4671365757473</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>206.3937038454577</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
         <v>205.7729852034775</v>
@@ -1536,13 +1536,13 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>30.53482036979254</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>167.4465608509556</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>157.3867970498209</v>
@@ -1572,13 +1572,13 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>40.5744171370463</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>152.8143555761653</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>214.5288682289405</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1596,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>37.04271061073112</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>277.3592434388143</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1624,10 +1624,10 @@
         <v>414.089049841944</v>
       </c>
       <c r="H14" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1654,25 +1654,25 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>73.62980964006111</v>
       </c>
       <c r="S14" t="n">
         <v>181.3631617334038</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>120.0205082795406</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1685,7 +1685,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
         <v>172.7084989883157</v>
@@ -1694,19 +1694,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>136.6941370086349</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>105.9637990594094</v>
       </c>
       <c r="I15" t="n">
-        <v>28.13786146382106</v>
+        <v>67.03858805571424</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1748,13 +1748,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>230.9928252496973</v>
       </c>
       <c r="X15" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>36.93334314034952</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1809,7 +1809,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>40.5744171370463</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -1821,10 +1821,10 @@
         <v>225.6194376234954</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>111.060750249129</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -1833,7 +1833,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1846,25 +1846,25 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>353.4014975208323</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I17" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1891,28 +1891,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>73.62980964006111</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>181.3631617334038</v>
+        <v>81.85050390350987</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1928,10 +1928,10 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
         <v>145.0692123933839</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>59.83930139749141</v>
+        <v>49.88807204227309</v>
       </c>
       <c r="S18" t="n">
         <v>159.6212195484502</v>
@@ -1988,10 +1988,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
-        <v>0.3390749617170013</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2013,7 +2013,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>123.320794865197</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>115.1165353722833</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>214.5288682289405</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>225.6194376234954</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2064,7 +2064,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2080,22 +2080,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>377.5219838394073</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>379.0725179312301</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2128,7 +2128,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>73.62980964006113</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -2137,7 +2137,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -2162,13 +2162,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>42.43009544057933</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
         <v>145.0692123933839</v>
@@ -2219,7 +2219,7 @@
         <v>225.8986597023843</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>251.6949831609196</v>
@@ -2228,7 +2228,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>147.6938511001826</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -2283,7 +2283,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>40.57441713704631</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -2292,7 +2292,7 @@
         <v>214.5288682289405</v>
       </c>
       <c r="T22" t="n">
-        <v>48.02391253490439</v>
+        <v>88.59832967195069</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2326,7 +2326,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>60.09619618307297</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -2338,7 +2338,7 @@
         <v>327.0451232326991</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2365,16 +2365,16 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>73.62980964006113</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T23" t="n">
         <v>217.7829317747374</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -2383,10 +2383,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>184.3260936702572</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2396,13 +2396,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>157.6450804554009</v>
@@ -2414,10 +2414,10 @@
         <v>136.6941370086349</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>59.83930139749142</v>
+        <v>16.91387525328438</v>
       </c>
       <c r="S24" t="n">
         <v>159.6212195484502</v>
@@ -2465,7 +2465,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>182.1392758451339</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -2481,10 +2481,10 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>136.2566308880122</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>122.1513196436839</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2520,16 +2520,16 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>40.57441713704631</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>152.8143555761653</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>214.5288682289405</v>
       </c>
       <c r="T25" t="n">
-        <v>225.6194376234954</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2544,7 +2544,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2563,19 +2563,19 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>64.92969799429851</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2602,13 +2602,13 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>73.62980964006113</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>217.7829317747374</v>
+        <v>143.0835301801029</v>
       </c>
       <c r="U26" t="n">
         <v>251.2485578939812</v>
@@ -2620,7 +2620,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2633,25 +2633,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>20.93857480559832</v>
       </c>
       <c r="C27" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>35.39908632027053</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
         <v>136.6941370086349</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I27" t="n">
         <v>67.03858805571426</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>59.83930139749142</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>159.6212195484502</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2757,10 +2757,10 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>40.57441713704631</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>152.8143555761653</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2769,16 +2769,16 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2893338015361</v>
       </c>
       <c r="V28" t="n">
-        <v>136.1664131224705</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>89.14352724124579</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2794,13 +2794,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2812,7 +2812,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2839,7 +2839,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>73.62980964006113</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -2848,13 +2848,13 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>215.2366820578531</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>348.8803294193014</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2879,16 +2879,16 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>45.59910121103272</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>33.6852048571419</v>
       </c>
       <c r="G30" t="n">
         <v>136.6941370086349</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I30" t="n">
         <v>67.03858805571426</v>
@@ -2933,7 +2933,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
         <v>205.7729852034775</v>
@@ -2949,10 +2949,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>89.78261652699481</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2961,7 +2961,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>152.8143555761653</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3006,13 +3006,13 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>16.60419956430029</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>240.2274274569862</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3037,16 +3037,16 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H32" t="n">
-        <v>118.9253750775954</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3076,7 +3076,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>73.62980964006113</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -3113,19 +3113,19 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>33.6852048571419</v>
       </c>
       <c r="G33" t="n">
         <v>136.6941370086349</v>
       </c>
       <c r="H33" t="n">
-        <v>35.39908632027053</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I33" t="n">
         <v>67.03858805571426</v>
@@ -3170,7 +3170,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
         <v>205.7729852034775</v>
@@ -3186,13 +3186,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>35.25035927824677</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3243,10 +3243,10 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2893338015361</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>116.1611518470178</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -3255,7 +3255,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3268,10 +3268,10 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>42.62109740092215</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -3283,10 +3283,10 @@
         <v>414.089049841944</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I35" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3322,19 +3322,19 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>324.9872312306336</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3347,25 +3347,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>15.31220406845842</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>133.1680123252102</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H36" t="n">
         <v>105.9637990594094</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3413,7 +3413,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3432,7 +3432,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3441,13 +3441,13 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>157.3867970498209</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>54.86879163620181</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -3480,16 +3480,16 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2893338015361</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>25.73442613929204</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>214.1067157869813</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3502,13 +3502,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -3517,13 +3517,13 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3550,28 +3550,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>73.62980964006113</v>
       </c>
       <c r="S38" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>223.4549920062422</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>379.584623293052</v>
       </c>
     </row>
     <row r="39">
@@ -3581,19 +3581,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>95.96847091072856</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>35.52816799353834</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
         <v>136.6941370086349</v>
@@ -3638,7 +3638,7 @@
         <v>197.5472709665096</v>
       </c>
       <c r="U39" t="n">
-        <v>225.8986597023843</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
@@ -3663,7 +3663,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3681,7 +3681,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>139.0783256288916</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3717,19 +3717,19 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2893338015361</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>268.9755074231831</v>
       </c>
       <c r="X40" t="n">
-        <v>30.35504114510524</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3739,25 +3739,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>386.2724239554197</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H41" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>163.6851955497072</v>
@@ -3787,7 +3787,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>73.62980964006113</v>
+        <v>73.62980964006111</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -3796,19 +3796,19 @@
         <v>217.7829317747374</v>
       </c>
       <c r="U41" t="n">
-        <v>25.75441435659135</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3818,10 +3818,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>103.0405813942275</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
@@ -3839,7 +3839,7 @@
         <v>105.9637990594094</v>
       </c>
       <c r="I42" t="n">
-        <v>67.03858805571426</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3869,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>89.18211739820566</v>
+        <v>159.6212195484502</v>
       </c>
       <c r="T42" t="n">
         <v>197.5472709665096</v>
@@ -3878,7 +3878,7 @@
         <v>225.8986597023843</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
         <v>251.6949831609196</v>
@@ -3897,16 +3897,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3951,7 +3951,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>92.96858446130993</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -3963,10 +3963,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>8.232734672475443</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3985,19 +3985,19 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>125.1320680988946</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>414.089049841944</v>
       </c>
       <c r="H44" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,19 +4027,19 @@
         <v>73.62980964006111</v>
       </c>
       <c r="S44" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>217.7829317747374</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>243.1704079200379</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -4064,7 +4064,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>27.36667690766462</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
         <v>145.0692123933839</v>
@@ -4076,7 +4076,7 @@
         <v>105.9637990594094</v>
       </c>
       <c r="I45" t="n">
-        <v>67.03858805571424</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4115,7 +4115,7 @@
         <v>225.8986597023843</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>94.40526496337894</v>
       </c>
       <c r="W45" t="n">
         <v>251.6949831609196</v>
@@ -4143,22 +4143,22 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>167.4465608509556</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>139.0783256288915</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>54.86879163620181</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>152.8143555761653</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>37.43186964989046</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -4200,10 +4200,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>193.8711631086703</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4354,25 +4354,25 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R2" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S2" t="n">
-        <v>742.8341567219593</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T2" t="n">
-        <v>742.8341567219593</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U2" t="n">
-        <v>742.8341567219593</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="V2" t="n">
-        <v>499.3853800778592</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="W2" t="n">
-        <v>297.2027203719481</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="X2" t="n">
-        <v>297.2027203719481</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="Y2" t="n">
         <v>53.75394372784808</v>
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>817.1412885554689</v>
+        <v>35.61171342886701</v>
       </c>
       <c r="C3" t="n">
-        <v>817.1412885554689</v>
+        <v>35.61171342886701</v>
       </c>
       <c r="D3" t="n">
-        <v>668.2068788942177</v>
+        <v>35.61171342886701</v>
       </c>
       <c r="E3" t="n">
-        <v>508.9694238887622</v>
+        <v>35.61171342886701</v>
       </c>
       <c r="F3" t="n">
-        <v>362.4348659156472</v>
+        <v>35.61171342886701</v>
       </c>
       <c r="G3" t="n">
-        <v>223.7040404982626</v>
+        <v>35.61171342886701</v>
       </c>
       <c r="H3" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I3" t="n">
         <v>20.03527576299844</v>
@@ -4415,16 +4415,16 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
-        <v>374.6018090363993</v>
+        <v>178.8501590306595</v>
       </c>
       <c r="M3" t="n">
-        <v>613.2059550252818</v>
+        <v>417.4543050195419</v>
       </c>
       <c r="N3" t="n">
-        <v>712.019119383956</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O3" t="n">
-        <v>712.019119383956</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P3" t="n">
         <v>894.6625969973069</v>
@@ -4433,28 +4433,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S3" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T3" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U3" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V3" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W3" t="n">
-        <v>817.1412885554689</v>
+        <v>619.4388494194218</v>
       </c>
       <c r="X3" t="n">
-        <v>817.1412885554689</v>
+        <v>411.587349213889</v>
       </c>
       <c r="Y3" t="n">
-        <v>817.1412885554689</v>
+        <v>203.827050448935</v>
       </c>
     </row>
     <row r="4">
@@ -4467,13 +4467,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="C4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F4" t="n">
         <v>19.28114311021272</v>
@@ -4543,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>278.1872303756613</v>
+        <v>502.8591282797204</v>
       </c>
       <c r="C5" t="n">
-        <v>278.1872303756613</v>
+        <v>502.8591282797204</v>
       </c>
       <c r="D5" t="n">
-        <v>278.1872303756613</v>
+        <v>502.8591282797204</v>
       </c>
       <c r="E5" t="n">
-        <v>278.1872303756613</v>
+        <v>502.8591282797204</v>
       </c>
       <c r="F5" t="n">
-        <v>34.73845373156126</v>
+        <v>259.4103516356203</v>
       </c>
       <c r="G5" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H5" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I5" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J5" t="n">
         <v>19.28114311021272</v>
@@ -4588,31 +4588,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S5" t="n">
-        <v>752.9257720901863</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T5" t="n">
-        <v>752.9257720901863</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="U5" t="n">
-        <v>752.9257720901863</v>
+        <v>502.8591282797204</v>
       </c>
       <c r="V5" t="n">
-        <v>509.4769954460863</v>
+        <v>502.8591282797204</v>
       </c>
       <c r="W5" t="n">
-        <v>509.4769954460863</v>
+        <v>502.8591282797204</v>
       </c>
       <c r="X5" t="n">
-        <v>509.4769954460863</v>
+        <v>502.8591282797204</v>
       </c>
       <c r="Y5" t="n">
-        <v>509.4769954460863</v>
+        <v>502.8591282797204</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>20.03527576299844</v>
+        <v>398.1570697793896</v>
       </c>
       <c r="C6" t="n">
-        <v>20.03527576299844</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="D6" t="n">
-        <v>20.03527576299844</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="E6" t="n">
-        <v>20.03527576299844</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="F6" t="n">
-        <v>20.03527576299844</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="G6" t="n">
-        <v>20.03527576299844</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H6" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I6" t="n">
         <v>20.03527576299844</v>
@@ -4658,40 +4658,40 @@
         <v>613.2059550252818</v>
       </c>
       <c r="N6" t="n">
-        <v>851.8101010141643</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O6" t="n">
-        <v>851.8101010141643</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P6" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S6" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T6" t="n">
-        <v>660.701031422288</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U6" t="n">
-        <v>432.4774131586771</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V6" t="n">
-        <v>197.3253049269343</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W6" t="n">
-        <v>197.3253049269343</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X6" t="n">
-        <v>197.3253049269343</v>
+        <v>756.2056553051034</v>
       </c>
       <c r="Y6" t="n">
-        <v>20.03527576299844</v>
+        <v>566.3724067994576</v>
       </c>
     </row>
     <row r="7">
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="C7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="D7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="E7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="F7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="G7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="H7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="I7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K7" t="n">
         <v>19.28114311021272</v>
@@ -4743,34 +4743,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X7" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="Y7" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
     </row>
     <row r="8">
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>497.7346397818405</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="C8" t="n">
-        <v>497.7346397818405</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="D8" t="n">
-        <v>254.2858631377404</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="E8" t="n">
-        <v>254.2858631377404</v>
+        <v>290.2572196227447</v>
       </c>
       <c r="F8" t="n">
-        <v>247.340362388537</v>
+        <v>46.80844297864461</v>
       </c>
       <c r="G8" t="n">
-        <v>231.8830517671884</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H8" t="n">
-        <v>231.8830517671884</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J8" t="n">
         <v>19.28114311021272</v>
@@ -4825,31 +4825,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S8" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T8" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="U8" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="V8" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="W8" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="X8" t="n">
-        <v>720.6083788665362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="Y8" t="n">
-        <v>497.7346397818405</v>
+        <v>591.4512093066566</v>
       </c>
     </row>
     <row r="9">
@@ -4859,28 +4859,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>19.28114311021272</v>
+        <v>395.6002882963414</v>
       </c>
       <c r="C9" t="n">
-        <v>19.28114311021272</v>
+        <v>395.6002882963414</v>
       </c>
       <c r="D9" t="n">
-        <v>19.28114311021272</v>
+        <v>395.6002882963414</v>
       </c>
       <c r="E9" t="n">
-        <v>19.28114311021272</v>
+        <v>395.6002882963414</v>
       </c>
       <c r="F9" t="n">
-        <v>19.28114311021272</v>
+        <v>249.0657303232264</v>
       </c>
       <c r="G9" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="H9" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
@@ -4895,10 +4895,10 @@
         <v>613.2059550252818</v>
       </c>
       <c r="N9" t="n">
-        <v>712.019119383956</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O9" t="n">
-        <v>712.019119383956</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="P9" t="n">
         <v>894.6625969973069</v>
@@ -4913,22 +4913,22 @@
         <v>862.8876260635219</v>
       </c>
       <c r="T9" t="n">
-        <v>660.701031422288</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U9" t="n">
-        <v>660.701031422288</v>
+        <v>807.2644019605095</v>
       </c>
       <c r="V9" t="n">
-        <v>425.5489231905453</v>
+        <v>807.2644019605095</v>
       </c>
       <c r="W9" t="n">
-        <v>425.5489231905453</v>
+        <v>563.8156253164095</v>
       </c>
       <c r="X9" t="n">
-        <v>227.0414418751666</v>
+        <v>563.8156253164095</v>
       </c>
       <c r="Y9" t="n">
-        <v>19.28114311021272</v>
+        <v>563.8156253164095</v>
       </c>
     </row>
     <row r="10">
@@ -4938,10 +4938,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="C10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="D10" t="n">
         <v>19.28114311021272</v>
@@ -4980,34 +4980,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
     </row>
     <row r="11">
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1771.415377244381</v>
+        <v>1551.432617875959</v>
       </c>
       <c r="C11" t="n">
-        <v>1402.452860303969</v>
+        <v>1182.470100935547</v>
       </c>
       <c r="D11" t="n">
-        <v>1044.187161697218</v>
+        <v>824.2044023287967</v>
       </c>
       <c r="E11" t="n">
-        <v>1044.187161697218</v>
+        <v>824.2044023287967</v>
       </c>
       <c r="F11" t="n">
-        <v>633.201256907611</v>
+        <v>824.2044023287967</v>
       </c>
       <c r="G11" t="n">
-        <v>542.5821871309436</v>
+        <v>405.9326348116816</v>
       </c>
       <c r="H11" t="n">
-        <v>212.2335778049849</v>
+        <v>75.58402548572286</v>
       </c>
       <c r="I11" t="n">
         <v>46.89499644164432</v>
@@ -5044,10 +5044,10 @@
         <v>137.0453218915536</v>
       </c>
       <c r="K11" t="n">
-        <v>392.9020949275677</v>
+        <v>392.9020949275679</v>
       </c>
       <c r="L11" t="n">
-        <v>762.5916738244551</v>
+        <v>762.5916738244553</v>
       </c>
       <c r="M11" t="n">
         <v>1190.549107376119</v>
@@ -5071,22 +5071,22 @@
         <v>2161.554709220192</v>
       </c>
       <c r="T11" t="n">
-        <v>2161.554709220192</v>
+        <v>1941.571949851771</v>
       </c>
       <c r="U11" t="n">
-        <v>2161.554709220192</v>
+        <v>1941.571949851771</v>
       </c>
       <c r="V11" t="n">
-        <v>2161.554709220192</v>
+        <v>1941.571949851771</v>
       </c>
       <c r="W11" t="n">
-        <v>2161.554709220192</v>
+        <v>1941.571949851771</v>
       </c>
       <c r="X11" t="n">
-        <v>2161.554709220192</v>
+        <v>1941.571949851771</v>
       </c>
       <c r="Y11" t="n">
-        <v>1771.415377244381</v>
+        <v>1551.432617875959</v>
       </c>
     </row>
     <row r="12">
@@ -5096,49 +5096,49 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>667.8916329505314</v>
+        <v>654.8918792244456</v>
       </c>
       <c r="C12" t="n">
-        <v>667.8916329505314</v>
+        <v>480.4388499433186</v>
       </c>
       <c r="D12" t="n">
-        <v>518.9572232892801</v>
+        <v>331.5044402820673</v>
       </c>
       <c r="E12" t="n">
-        <v>359.7197682838247</v>
+        <v>331.5044402820673</v>
       </c>
       <c r="F12" t="n">
-        <v>359.7197682838247</v>
+        <v>184.9698823089523</v>
       </c>
       <c r="G12" t="n">
-        <v>221.6448824165167</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H12" t="n">
-        <v>114.6107419524668</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I12" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J12" t="n">
-        <v>106.8945330050503</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K12" t="n">
-        <v>336.0641406922997</v>
+        <v>276.0646041288937</v>
       </c>
       <c r="L12" t="n">
-        <v>705.6153558007836</v>
+        <v>645.6158192373777</v>
       </c>
       <c r="M12" t="n">
-        <v>974.4476973832902</v>
+        <v>1125.906134925503</v>
       </c>
       <c r="N12" t="n">
-        <v>1486.172378671464</v>
+        <v>1637.630816213677</v>
       </c>
       <c r="O12" t="n">
-        <v>1887.88481026779</v>
+        <v>2039.343247810003</v>
       </c>
       <c r="P12" t="n">
-        <v>2193.291384540003</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q12" t="n">
         <v>2344.749822082216</v>
@@ -5153,19 +5153,19 @@
         <v>1923.529830251457</v>
       </c>
       <c r="U12" t="n">
-        <v>1695.349365905614</v>
+        <v>1728.108480174945</v>
       </c>
       <c r="V12" t="n">
-        <v>1460.197257673872</v>
+        <v>1492.956371943202</v>
       </c>
       <c r="W12" t="n">
-        <v>1251.718768941086</v>
+        <v>1238.719015215</v>
       </c>
       <c r="X12" t="n">
-        <v>1043.867268735553</v>
+        <v>1030.867515009468</v>
       </c>
       <c r="Y12" t="n">
-        <v>836.1069699705995</v>
+        <v>823.1072162445137</v>
       </c>
     </row>
     <row r="13">
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>375.0094993717216</v>
+        <v>236.7148120170114</v>
       </c>
       <c r="C13" t="n">
-        <v>375.0094993717216</v>
+        <v>236.7148120170114</v>
       </c>
       <c r="D13" t="n">
-        <v>375.0094993717216</v>
+        <v>236.7148120170114</v>
       </c>
       <c r="E13" t="n">
-        <v>375.0094993717216</v>
+        <v>205.8715591182311</v>
       </c>
       <c r="F13" t="n">
-        <v>375.0094993717216</v>
+        <v>205.8715591182311</v>
       </c>
       <c r="G13" t="n">
         <v>205.8715591182311</v>
@@ -5220,31 +5220,31 @@
         <v>607.7685734363102</v>
       </c>
       <c r="Q13" t="n">
-        <v>566.78431370192</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="R13" t="n">
-        <v>412.4263787765005</v>
+        <v>453.4106385108907</v>
       </c>
       <c r="S13" t="n">
-        <v>412.4263787765005</v>
+        <v>236.7148120170114</v>
       </c>
       <c r="T13" t="n">
-        <v>412.4263787765005</v>
+        <v>236.7148120170114</v>
       </c>
       <c r="U13" t="n">
-        <v>412.4263787765005</v>
+        <v>236.7148120170114</v>
       </c>
       <c r="V13" t="n">
-        <v>412.4263787765005</v>
+        <v>236.7148120170114</v>
       </c>
       <c r="W13" t="n">
-        <v>412.4263787765005</v>
+        <v>236.7148120170114</v>
       </c>
       <c r="X13" t="n">
-        <v>412.4263787765005</v>
+        <v>236.7148120170114</v>
       </c>
       <c r="Y13" t="n">
-        <v>375.0094993717216</v>
+        <v>236.7148120170114</v>
       </c>
     </row>
     <row r="14">
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1319.119653254809</v>
+        <v>823.4324625655099</v>
       </c>
       <c r="C14" t="n">
-        <v>1319.119653254809</v>
+        <v>823.4324625655099</v>
       </c>
       <c r="D14" t="n">
-        <v>960.8539546480588</v>
+        <v>465.1667639587595</v>
       </c>
       <c r="E14" t="n">
-        <v>960.8539546480588</v>
+        <v>465.1667639587595</v>
       </c>
       <c r="F14" t="n">
-        <v>960.8539546480588</v>
+        <v>465.1667639587595</v>
       </c>
       <c r="G14" t="n">
-        <v>542.5821871309436</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H14" t="n">
-        <v>212.2335778049849</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I14" t="n">
         <v>46.89499644164432</v>
@@ -5281,10 +5281,10 @@
         <v>137.0453218915536</v>
       </c>
       <c r="K14" t="n">
-        <v>392.9020949275679</v>
+        <v>392.9020949275677</v>
       </c>
       <c r="L14" t="n">
-        <v>762.5916738244553</v>
+        <v>762.5916738244551</v>
       </c>
       <c r="M14" t="n">
         <v>1190.549107376119</v>
@@ -5302,28 +5302,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R14" t="n">
-        <v>2344.749822082216</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="S14" t="n">
-        <v>2161.554709220192</v>
+        <v>2087.181164129222</v>
       </c>
       <c r="T14" t="n">
-        <v>2161.554709220192</v>
+        <v>1867.1984047608</v>
       </c>
       <c r="U14" t="n">
-        <v>2161.554709220192</v>
+        <v>1867.1984047608</v>
       </c>
       <c r="V14" t="n">
-        <v>1830.491821876622</v>
+        <v>1867.1984047608</v>
       </c>
       <c r="W14" t="n">
-        <v>1830.491821876622</v>
+        <v>1867.1984047608</v>
       </c>
       <c r="X14" t="n">
-        <v>1709.258985230621</v>
+        <v>1493.73264649972</v>
       </c>
       <c r="Y14" t="n">
-        <v>1319.119653254809</v>
+        <v>1103.593314523908</v>
       </c>
     </row>
     <row r="15">
@@ -5333,25 +5333,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>790.3481019751835</v>
+        <v>850.8043343374655</v>
       </c>
       <c r="C15" t="n">
-        <v>615.8950726940565</v>
+        <v>676.3513050563386</v>
       </c>
       <c r="D15" t="n">
-        <v>466.9606630328052</v>
+        <v>527.4168953950873</v>
       </c>
       <c r="E15" t="n">
-        <v>466.9606630328052</v>
+        <v>368.1794403896317</v>
       </c>
       <c r="F15" t="n">
-        <v>320.4261050596901</v>
+        <v>221.6448824165167</v>
       </c>
       <c r="G15" t="n">
-        <v>182.3512191923822</v>
+        <v>221.6448824165167</v>
       </c>
       <c r="H15" t="n">
-        <v>75.31707872833226</v>
+        <v>114.6107419524668</v>
       </c>
       <c r="I15" t="n">
         <v>46.89499644164432</v>
@@ -5372,7 +5372,7 @@
         <v>1700.568096156132</v>
       </c>
       <c r="O15" t="n">
-        <v>2102.280527752458</v>
+        <v>1887.88481026779</v>
       </c>
       <c r="P15" t="n">
         <v>2193.291384540003</v>
@@ -5396,13 +5396,13 @@
         <v>1460.197257673872</v>
       </c>
       <c r="W15" t="n">
-        <v>1205.95990094567</v>
+        <v>1226.871171563066</v>
       </c>
       <c r="X15" t="n">
-        <v>998.1084007401373</v>
+        <v>1019.019671357534</v>
       </c>
       <c r="Y15" t="n">
-        <v>790.3481019751835</v>
+        <v>1019.019671357534</v>
       </c>
     </row>
     <row r="16">
@@ -5457,31 +5457,31 @@
         <v>607.7685734363102</v>
       </c>
       <c r="Q16" t="n">
-        <v>566.78431370192</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="R16" t="n">
-        <v>566.78431370192</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="S16" t="n">
-        <v>566.78431370192</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="T16" t="n">
-        <v>338.8858918600055</v>
+        <v>379.8701515943957</v>
       </c>
       <c r="U16" t="n">
-        <v>338.8858918600055</v>
+        <v>267.6875755851744</v>
       </c>
       <c r="V16" t="n">
-        <v>84.20140365411859</v>
+        <v>267.6875755851744</v>
       </c>
       <c r="W16" t="n">
-        <v>84.20140365411859</v>
+        <v>267.6875755851744</v>
       </c>
       <c r="X16" t="n">
-        <v>84.20140365411859</v>
+        <v>267.6875755851744</v>
       </c>
       <c r="Y16" t="n">
-        <v>84.20140365411859</v>
+        <v>46.89499644164432</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1365.978944809839</v>
+        <v>1104.471821314765</v>
       </c>
       <c r="C17" t="n">
-        <v>1365.978944809839</v>
+        <v>735.5093043743535</v>
       </c>
       <c r="D17" t="n">
-        <v>1365.978944809839</v>
+        <v>377.243605767603</v>
       </c>
       <c r="E17" t="n">
-        <v>980.1906922115948</v>
+        <v>377.243605767603</v>
       </c>
       <c r="F17" t="n">
-        <v>569.2047874219872</v>
+        <v>377.243605767603</v>
       </c>
       <c r="G17" t="n">
-        <v>212.2335778049849</v>
+        <v>377.243605767603</v>
       </c>
       <c r="H17" t="n">
-        <v>212.2335778049849</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I17" t="n">
         <v>46.89499644164432</v>
@@ -5518,10 +5518,10 @@
         <v>137.0453218915536</v>
       </c>
       <c r="K17" t="n">
-        <v>392.9020949275679</v>
+        <v>392.9020949275677</v>
       </c>
       <c r="L17" t="n">
-        <v>762.5916738244553</v>
+        <v>762.5916738244551</v>
       </c>
       <c r="M17" t="n">
         <v>1190.549107376119</v>
@@ -5539,28 +5539,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R17" t="n">
-        <v>2270.376276991246</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S17" t="n">
-        <v>2087.181164129222</v>
+        <v>2262.072545412004</v>
       </c>
       <c r="T17" t="n">
-        <v>2087.181164129222</v>
+        <v>2042.089786043583</v>
       </c>
       <c r="U17" t="n">
-        <v>2087.181164129222</v>
+        <v>1788.30336392845</v>
       </c>
       <c r="V17" t="n">
-        <v>1756.118276785651</v>
+        <v>1457.240476584879</v>
       </c>
       <c r="W17" t="n">
-        <v>1756.118276785651</v>
+        <v>1104.471821314765</v>
       </c>
       <c r="X17" t="n">
-        <v>1756.118276785651</v>
+        <v>1104.471821314765</v>
       </c>
       <c r="Y17" t="n">
-        <v>1365.978944809839</v>
+        <v>1104.471821314765</v>
       </c>
     </row>
     <row r="18">
@@ -5570,13 +5570,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>829.641765199318</v>
+        <v>839.9448105435223</v>
       </c>
       <c r="C18" t="n">
-        <v>655.188735918191</v>
+        <v>665.4917812623953</v>
       </c>
       <c r="D18" t="n">
-        <v>506.2543262569397</v>
+        <v>665.4917812623953</v>
       </c>
       <c r="E18" t="n">
         <v>506.2543262569397</v>
@@ -5594,52 +5594,52 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J18" t="n">
-        <v>106.8945330050503</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K18" t="n">
-        <v>336.0641406922997</v>
+        <v>276.0646041288937</v>
       </c>
       <c r="L18" t="n">
-        <v>705.6153558007836</v>
+        <v>645.6158192373777</v>
       </c>
       <c r="M18" t="n">
-        <v>974.4476973832902</v>
+        <v>1128.843878304552</v>
       </c>
       <c r="N18" t="n">
-        <v>1486.172378671464</v>
+        <v>1640.568559592726</v>
       </c>
       <c r="O18" t="n">
-        <v>1887.88481026779</v>
+        <v>2042.280991189052</v>
       </c>
       <c r="P18" t="n">
-        <v>2193.291384540003</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q18" t="n">
         <v>2344.749822082216</v>
       </c>
       <c r="R18" t="n">
-        <v>2284.306083296871</v>
+        <v>2294.357830120324</v>
       </c>
       <c r="S18" t="n">
-        <v>2123.072528197426</v>
+        <v>2133.124275020879</v>
       </c>
       <c r="T18" t="n">
-        <v>1923.529830251457</v>
+        <v>1933.58157707491</v>
       </c>
       <c r="U18" t="n">
-        <v>1695.349365905614</v>
+        <v>1705.401112729067</v>
       </c>
       <c r="V18" t="n">
-        <v>1460.197257673872</v>
+        <v>1470.249004497325</v>
       </c>
       <c r="W18" t="n">
-        <v>1205.95990094567</v>
+        <v>1216.011647769123</v>
       </c>
       <c r="X18" t="n">
-        <v>1205.61740098434</v>
+        <v>1008.16014756359</v>
       </c>
       <c r="Y18" t="n">
-        <v>997.857102219386</v>
+        <v>1008.16014756359</v>
       </c>
     </row>
     <row r="19">
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>46.89499644164432</v>
+        <v>318.3514033993496</v>
       </c>
       <c r="C19" t="n">
-        <v>46.89499644164432</v>
+        <v>318.3514033993496</v>
       </c>
       <c r="D19" t="n">
-        <v>46.89499644164432</v>
+        <v>318.3514033993496</v>
       </c>
       <c r="E19" t="n">
-        <v>46.89499644164432</v>
+        <v>318.3514033993496</v>
       </c>
       <c r="F19" t="n">
-        <v>46.89499644164432</v>
+        <v>171.4614559014393</v>
       </c>
       <c r="G19" t="n">
-        <v>46.89499644164432</v>
+        <v>171.4614559014393</v>
       </c>
       <c r="H19" t="n">
-        <v>46.89499644164432</v>
+        <v>171.4614559014393</v>
       </c>
       <c r="I19" t="n">
         <v>46.89499644164432</v>
@@ -5697,28 +5697,28 @@
         <v>607.7685734363102</v>
       </c>
       <c r="R19" t="n">
-        <v>491.4892447774382</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="S19" t="n">
-        <v>274.7934182835589</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="T19" t="n">
-        <v>46.89499644164432</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="U19" t="n">
-        <v>46.89499644164432</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="V19" t="n">
-        <v>46.89499644164432</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="W19" t="n">
-        <v>46.89499644164432</v>
+        <v>318.3514033993496</v>
       </c>
       <c r="X19" t="n">
-        <v>46.89499644164432</v>
+        <v>318.3514033993496</v>
       </c>
       <c r="Y19" t="n">
-        <v>46.89499644164432</v>
+        <v>318.3514033993496</v>
       </c>
     </row>
     <row r="20">
@@ -5728,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1245.115185688779</v>
+        <v>1568.010650042283</v>
       </c>
       <c r="C20" t="n">
-        <v>876.152668748367</v>
+        <v>1199.048133101871</v>
       </c>
       <c r="D20" t="n">
-        <v>876.152668748367</v>
+        <v>840.7824344951207</v>
       </c>
       <c r="E20" t="n">
-        <v>876.152668748367</v>
+        <v>457.8809012312519</v>
       </c>
       <c r="F20" t="n">
-        <v>465.1667639587595</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G20" t="n">
         <v>46.89499644164432</v>
@@ -5752,7 +5752,7 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J20" t="n">
-        <v>137.0453218915534</v>
+        <v>137.0453218915536</v>
       </c>
       <c r="K20" t="n">
         <v>392.9020949275675</v>
@@ -5776,28 +5776,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R20" t="n">
-        <v>2270.376276991246</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S20" t="n">
-        <v>2270.376276991246</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T20" t="n">
-        <v>2270.376276991246</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="U20" t="n">
-        <v>2016.589854876113</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="V20" t="n">
-        <v>2016.589854876113</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="W20" t="n">
-        <v>2016.589854876113</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="X20" t="n">
-        <v>2016.589854876113</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Y20" t="n">
-        <v>1626.450522900301</v>
+        <v>1954.610490106405</v>
       </c>
     </row>
     <row r="21">
@@ -5807,13 +5807,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>680.7073555380667</v>
+        <v>857.284873186858</v>
       </c>
       <c r="C21" t="n">
-        <v>506.2543262569397</v>
+        <v>814.4261909236466</v>
       </c>
       <c r="D21" t="n">
-        <v>506.2543262569397</v>
+        <v>665.4917812623953</v>
       </c>
       <c r="E21" t="n">
         <v>506.2543262569397</v>
@@ -5831,25 +5831,25 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J21" t="n">
-        <v>46.89499644164432</v>
+        <v>106.8945330050503</v>
       </c>
       <c r="K21" t="n">
-        <v>276.0646041288937</v>
+        <v>336.0641406922996</v>
       </c>
       <c r="L21" t="n">
-        <v>645.6158192373775</v>
+        <v>705.6153558007836</v>
       </c>
       <c r="M21" t="n">
-        <v>1128.843878304552</v>
+        <v>1188.843414867958</v>
       </c>
       <c r="N21" t="n">
-        <v>1640.568559592725</v>
+        <v>1700.568096156132</v>
       </c>
       <c r="O21" t="n">
-        <v>2042.280991189052</v>
+        <v>2102.280527752458</v>
       </c>
       <c r="P21" t="n">
-        <v>2193.291384540003</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q21" t="n">
         <v>2344.749822082216</v>
@@ -5867,16 +5867,16 @@
         <v>1695.349365905614</v>
       </c>
       <c r="V21" t="n">
-        <v>1460.197257673872</v>
+        <v>1695.349365905614</v>
       </c>
       <c r="W21" t="n">
-        <v>1205.95990094567</v>
+        <v>1441.112009177413</v>
       </c>
       <c r="X21" t="n">
-        <v>998.1084007401373</v>
+        <v>1233.26050897188</v>
       </c>
       <c r="Y21" t="n">
-        <v>848.9226925581347</v>
+        <v>1025.500210206926</v>
       </c>
     </row>
     <row r="22">
@@ -5931,13 +5931,13 @@
         <v>607.7685734363102</v>
       </c>
       <c r="Q22" t="n">
-        <v>566.78431370192</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="R22" t="n">
-        <v>566.78431370192</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="S22" t="n">
-        <v>350.0884872080407</v>
+        <v>391.0727469424309</v>
       </c>
       <c r="T22" t="n">
         <v>301.5794846475312</v>
@@ -5965,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1121.297556972598</v>
+        <v>961.5511142054445</v>
       </c>
       <c r="C23" t="n">
-        <v>1121.297556972598</v>
+        <v>961.5511142054445</v>
       </c>
       <c r="D23" t="n">
-        <v>763.0318583658473</v>
+        <v>603.285415598694</v>
       </c>
       <c r="E23" t="n">
-        <v>377.243605767603</v>
+        <v>542.5821871309436</v>
       </c>
       <c r="F23" t="n">
-        <v>377.243605767603</v>
+        <v>542.5821871309436</v>
       </c>
       <c r="G23" t="n">
-        <v>377.243605767603</v>
+        <v>542.5821871309436</v>
       </c>
       <c r="H23" t="n">
-        <v>46.89499644164432</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="I23" t="n">
         <v>46.89499644164432</v>
@@ -5995,10 +5995,10 @@
         <v>392.9020949275676</v>
       </c>
       <c r="L23" t="n">
-        <v>762.5916738244549</v>
+        <v>762.591673824455</v>
       </c>
       <c r="M23" t="n">
-        <v>1190.549107376118</v>
+        <v>1190.549107376119</v>
       </c>
       <c r="N23" t="n">
         <v>1610.799342072557</v>
@@ -6010,31 +6010,31 @@
         <v>2224.886645733487</v>
       </c>
       <c r="Q23" t="n">
-        <v>2344.749822082216</v>
+        <v>2344.749822082217</v>
       </c>
       <c r="R23" t="n">
-        <v>2270.376276991246</v>
+        <v>2344.749822082217</v>
       </c>
       <c r="S23" t="n">
-        <v>2270.376276991246</v>
+        <v>2161.554709220193</v>
       </c>
       <c r="T23" t="n">
-        <v>2050.393517622824</v>
+        <v>1941.571949851771</v>
       </c>
       <c r="U23" t="n">
-        <v>2050.393517622824</v>
+        <v>1687.785527736638</v>
       </c>
       <c r="V23" t="n">
-        <v>2050.393517622824</v>
+        <v>1687.785527736638</v>
       </c>
       <c r="W23" t="n">
-        <v>1697.62486235271</v>
+        <v>1335.016872466524</v>
       </c>
       <c r="X23" t="n">
-        <v>1511.436888948409</v>
+        <v>961.5511142054445</v>
       </c>
       <c r="Y23" t="n">
-        <v>1121.297556972598</v>
+        <v>961.5511142054445</v>
       </c>
     </row>
     <row r="24">
@@ -6044,25 +6044,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>814.129334229901</v>
+        <v>665.4917812623953</v>
       </c>
       <c r="C24" t="n">
-        <v>639.676304948774</v>
+        <v>665.4917812623953</v>
       </c>
       <c r="D24" t="n">
-        <v>490.7418952875228</v>
+        <v>665.4917812623953</v>
       </c>
       <c r="E24" t="n">
-        <v>331.5044402820673</v>
+        <v>506.2543262569397</v>
       </c>
       <c r="F24" t="n">
-        <v>184.9698823089523</v>
+        <v>359.7197682838247</v>
       </c>
       <c r="G24" t="n">
-        <v>46.89499644164432</v>
+        <v>221.6448824165167</v>
       </c>
       <c r="H24" t="n">
-        <v>46.89499644164432</v>
+        <v>114.6107419524668</v>
       </c>
       <c r="I24" t="n">
         <v>46.89499644164432</v>
@@ -6071,7 +6071,7 @@
         <v>46.89499644164432</v>
       </c>
       <c r="K24" t="n">
-        <v>121.6684232076319</v>
+        <v>276.0646041288937</v>
       </c>
       <c r="L24" t="n">
         <v>491.2196383161158</v>
@@ -6092,28 +6092,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R24" t="n">
-        <v>2284.306083296871</v>
+        <v>2327.665099604151</v>
       </c>
       <c r="S24" t="n">
-        <v>2123.072528197426</v>
+        <v>2166.431544504706</v>
       </c>
       <c r="T24" t="n">
-        <v>1923.529830251457</v>
+        <v>1966.888846558737</v>
       </c>
       <c r="U24" t="n">
-        <v>1695.349365905614</v>
+        <v>1738.708382212894</v>
       </c>
       <c r="V24" t="n">
-        <v>1460.197257673872</v>
+        <v>1503.556273981152</v>
       </c>
       <c r="W24" t="n">
-        <v>1205.95990094567</v>
+        <v>1249.31891725295</v>
       </c>
       <c r="X24" t="n">
-        <v>998.1084007401373</v>
+        <v>1041.467417047417</v>
       </c>
       <c r="Y24" t="n">
-        <v>814.129334229901</v>
+        <v>833.7071182824634</v>
       </c>
     </row>
     <row r="25">
@@ -6123,13 +6123,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>184.527956934586</v>
+        <v>170.2801677989008</v>
       </c>
       <c r="C25" t="n">
-        <v>184.527956934586</v>
+        <v>170.2801677989008</v>
       </c>
       <c r="D25" t="n">
-        <v>46.89499644164432</v>
+        <v>170.2801677989008</v>
       </c>
       <c r="E25" t="n">
         <v>46.89499644164432</v>
@@ -6168,31 +6168,31 @@
         <v>607.7685734363102</v>
       </c>
       <c r="Q25" t="n">
-        <v>566.78431370192</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="R25" t="n">
-        <v>412.4263787765005</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="S25" t="n">
-        <v>412.4263787765005</v>
+        <v>391.0727469424309</v>
       </c>
       <c r="T25" t="n">
-        <v>184.527956934586</v>
+        <v>391.0727469424309</v>
       </c>
       <c r="U25" t="n">
-        <v>184.527956934586</v>
+        <v>391.0727469424309</v>
       </c>
       <c r="V25" t="n">
-        <v>184.527956934586</v>
+        <v>391.0727469424309</v>
       </c>
       <c r="W25" t="n">
-        <v>184.527956934586</v>
+        <v>391.0727469424309</v>
       </c>
       <c r="X25" t="n">
-        <v>184.527956934586</v>
+        <v>391.0727469424309</v>
       </c>
       <c r="Y25" t="n">
-        <v>184.527956934586</v>
+        <v>170.2801677989008</v>
       </c>
     </row>
     <row r="26">
@@ -6202,34 +6202,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>688.8050361241869</v>
+        <v>465.1667639587595</v>
       </c>
       <c r="C26" t="n">
-        <v>688.8050361241869</v>
+        <v>465.1667639587595</v>
       </c>
       <c r="D26" t="n">
-        <v>688.8050361241869</v>
+        <v>465.1667639587595</v>
       </c>
       <c r="E26" t="n">
-        <v>623.2194825945925</v>
+        <v>465.1667639587595</v>
       </c>
       <c r="F26" t="n">
-        <v>212.2335778049849</v>
+        <v>465.1667639587595</v>
       </c>
       <c r="G26" t="n">
-        <v>212.2335778049849</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H26" t="n">
-        <v>212.2335778049849</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I26" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J26" t="n">
-        <v>137.0453218915535</v>
+        <v>137.0453218915534</v>
       </c>
       <c r="K26" t="n">
-        <v>392.9020949275676</v>
+        <v>392.9020949275675</v>
       </c>
       <c r="L26" t="n">
         <v>762.5916738244549</v>
@@ -6250,28 +6250,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R26" t="n">
-        <v>2270.376276991246</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S26" t="n">
-        <v>2270.376276991246</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T26" t="n">
-        <v>2050.393517622824</v>
+        <v>2200.221003718476</v>
       </c>
       <c r="U26" t="n">
-        <v>1796.607095507691</v>
+        <v>1946.434581603343</v>
       </c>
       <c r="V26" t="n">
-        <v>1465.54420816412</v>
+        <v>1615.371694259773</v>
       </c>
       <c r="W26" t="n">
-        <v>1465.54420816412</v>
+        <v>1615.371694259773</v>
       </c>
       <c r="X26" t="n">
-        <v>1465.54420816412</v>
+        <v>1241.905935998693</v>
       </c>
       <c r="Y26" t="n">
-        <v>1075.404876188309</v>
+        <v>851.7666040228812</v>
       </c>
     </row>
     <row r="27">
@@ -6281,22 +6281,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>622.1327649551154</v>
+        <v>829.641765199318</v>
       </c>
       <c r="C27" t="n">
-        <v>447.6797356739884</v>
+        <v>655.188735918191</v>
       </c>
       <c r="D27" t="n">
-        <v>411.9230828252303</v>
+        <v>506.2543262569397</v>
       </c>
       <c r="E27" t="n">
-        <v>252.6856278197748</v>
+        <v>506.2543262569397</v>
       </c>
       <c r="F27" t="n">
-        <v>252.6856278197748</v>
+        <v>359.7197682838247</v>
       </c>
       <c r="G27" t="n">
-        <v>114.6107419524668</v>
+        <v>221.6448824165167</v>
       </c>
       <c r="H27" t="n">
         <v>114.6107419524668</v>
@@ -6308,49 +6308,49 @@
         <v>46.89499644164432</v>
       </c>
       <c r="K27" t="n">
-        <v>121.6684232076319</v>
+        <v>276.0646041288937</v>
       </c>
       <c r="L27" t="n">
-        <v>491.2196383161158</v>
+        <v>645.6158192373775</v>
       </c>
       <c r="M27" t="n">
-        <v>974.4476973832902</v>
+        <v>1128.843878304552</v>
       </c>
       <c r="N27" t="n">
-        <v>1486.172378671464</v>
+        <v>1640.568559592725</v>
       </c>
       <c r="O27" t="n">
-        <v>1887.88481026779</v>
+        <v>2042.280991189052</v>
       </c>
       <c r="P27" t="n">
-        <v>2193.291384540003</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q27" t="n">
         <v>2344.749822082216</v>
       </c>
       <c r="R27" t="n">
-        <v>2284.306083296871</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S27" t="n">
-        <v>2123.072528197426</v>
+        <v>2183.516266982771</v>
       </c>
       <c r="T27" t="n">
-        <v>1923.529830251457</v>
+        <v>1983.973569036802</v>
       </c>
       <c r="U27" t="n">
-        <v>1695.349365905614</v>
+        <v>1755.793104690959</v>
       </c>
       <c r="V27" t="n">
-        <v>1460.197257673872</v>
+        <v>1520.640996459217</v>
       </c>
       <c r="W27" t="n">
-        <v>1205.95990094567</v>
+        <v>1266.403639731015</v>
       </c>
       <c r="X27" t="n">
-        <v>998.1084007401373</v>
+        <v>1058.552139525482</v>
       </c>
       <c r="Y27" t="n">
-        <v>790.3481019751835</v>
+        <v>850.7918407605284</v>
       </c>
     </row>
     <row r="28">
@@ -6405,31 +6405,31 @@
         <v>607.7685734363102</v>
       </c>
       <c r="Q28" t="n">
-        <v>566.78431370192</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="R28" t="n">
-        <v>412.4263787765005</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="S28" t="n">
-        <v>412.4263787765005</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="T28" t="n">
-        <v>412.4263787765005</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="U28" t="n">
-        <v>412.4263787765005</v>
+        <v>318.5874281822333</v>
       </c>
       <c r="V28" t="n">
-        <v>274.8845473396617</v>
+        <v>318.5874281822333</v>
       </c>
       <c r="W28" t="n">
-        <v>274.8845473396617</v>
+        <v>228.543461271884</v>
       </c>
       <c r="X28" t="n">
-        <v>46.89499644164432</v>
+        <v>228.543461271884</v>
       </c>
       <c r="Y28" t="n">
-        <v>46.89499644164432</v>
+        <v>228.543461271884</v>
       </c>
     </row>
     <row r="29">
@@ -6439,40 +6439,40 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>826.8434181716636</v>
+        <v>1367.273433799587</v>
       </c>
       <c r="C29" t="n">
-        <v>457.8809012312519</v>
+        <v>1367.273433799587</v>
       </c>
       <c r="D29" t="n">
-        <v>457.8809012312519</v>
+        <v>1009.007735192837</v>
       </c>
       <c r="E29" t="n">
-        <v>457.8809012312519</v>
+        <v>623.2194825945925</v>
       </c>
       <c r="F29" t="n">
-        <v>46.89499644164432</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="G29" t="n">
-        <v>46.89499644164432</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="H29" t="n">
-        <v>46.89499644164432</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="I29" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J29" t="n">
-        <v>137.0453218915534</v>
+        <v>137.0453218915536</v>
       </c>
       <c r="K29" t="n">
-        <v>392.9020949275675</v>
+        <v>392.9020949275678</v>
       </c>
       <c r="L29" t="n">
-        <v>762.5916738244549</v>
+        <v>762.5916738244551</v>
       </c>
       <c r="M29" t="n">
-        <v>1190.549107376118</v>
+        <v>1190.549107376119</v>
       </c>
       <c r="N29" t="n">
         <v>1610.799342072557</v>
@@ -6487,28 +6487,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R29" t="n">
-        <v>2270.376276991246</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S29" t="n">
-        <v>2270.376276991246</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T29" t="n">
-        <v>2270.376276991246</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="U29" t="n">
-        <v>2270.376276991246</v>
+        <v>2127.339032124789</v>
       </c>
       <c r="V29" t="n">
-        <v>1939.313389647675</v>
+        <v>2127.339032124789</v>
       </c>
       <c r="W29" t="n">
-        <v>1586.909016496865</v>
+        <v>2127.339032124789</v>
       </c>
       <c r="X29" t="n">
-        <v>1213.443258235785</v>
+        <v>1753.873273863709</v>
       </c>
       <c r="Y29" t="n">
-        <v>1213.443258235785</v>
+        <v>1753.873273863709</v>
       </c>
     </row>
     <row r="30">
@@ -6518,22 +6518,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>622.1327649551154</v>
+        <v>876.3701216833169</v>
       </c>
       <c r="C30" t="n">
-        <v>447.6797356739884</v>
+        <v>701.91709240219</v>
       </c>
       <c r="D30" t="n">
-        <v>298.7453260127371</v>
+        <v>552.9826827409387</v>
       </c>
       <c r="E30" t="n">
-        <v>252.6856278197748</v>
+        <v>393.7452277354832</v>
       </c>
       <c r="F30" t="n">
-        <v>252.6856278197748</v>
+        <v>359.7197682838247</v>
       </c>
       <c r="G30" t="n">
-        <v>114.6107419524668</v>
+        <v>221.6448824165167</v>
       </c>
       <c r="H30" t="n">
         <v>114.6107419524668</v>
@@ -6545,10 +6545,10 @@
         <v>106.8945330050503</v>
       </c>
       <c r="K30" t="n">
-        <v>121.6684232076319</v>
+        <v>336.0641406922996</v>
       </c>
       <c r="L30" t="n">
-        <v>491.2196383161158</v>
+        <v>705.6153558007836</v>
       </c>
       <c r="M30" t="n">
         <v>974.4476973832902</v>
@@ -6581,13 +6581,13 @@
         <v>1460.197257673872</v>
       </c>
       <c r="W30" t="n">
-        <v>1205.95990094567</v>
+        <v>1460.197257673872</v>
       </c>
       <c r="X30" t="n">
-        <v>998.1084007401373</v>
+        <v>1252.345757468339</v>
       </c>
       <c r="Y30" t="n">
-        <v>790.3481019751835</v>
+        <v>1044.585458703385</v>
       </c>
     </row>
     <row r="31">
@@ -6597,16 +6597,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>362.7211268674616</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="C31" t="n">
-        <v>193.7849439395547</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="D31" t="n">
-        <v>193.7849439395547</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="E31" t="n">
-        <v>193.7849439395547</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="F31" t="n">
         <v>46.89499644164432</v>
@@ -6645,28 +6645,28 @@
         <v>607.7685734363102</v>
       </c>
       <c r="R31" t="n">
-        <v>453.4106385108907</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="S31" t="n">
-        <v>453.4106385108907</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="T31" t="n">
-        <v>453.4106385108907</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="U31" t="n">
-        <v>453.4106385108907</v>
+        <v>590.9966546844918</v>
       </c>
       <c r="V31" t="n">
-        <v>453.4106385108907</v>
+        <v>336.3121664786049</v>
       </c>
       <c r="W31" t="n">
-        <v>453.4106385108907</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="X31" t="n">
-        <v>453.4106385108907</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="Y31" t="n">
-        <v>453.4106385108907</v>
+        <v>46.89499644164432</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1332.758312262428</v>
+        <v>1164.47789022513</v>
       </c>
       <c r="C32" t="n">
-        <v>963.7957953220168</v>
+        <v>795.5153732847182</v>
       </c>
       <c r="D32" t="n">
-        <v>963.7957953220168</v>
+        <v>795.5153732847182</v>
       </c>
       <c r="E32" t="n">
-        <v>578.0075427237725</v>
+        <v>795.5153732847182</v>
       </c>
       <c r="F32" t="n">
-        <v>167.021637934165</v>
+        <v>795.5153732847182</v>
       </c>
       <c r="G32" t="n">
-        <v>167.021637934165</v>
+        <v>377.243605767603</v>
       </c>
       <c r="H32" t="n">
         <v>46.89499644164432</v>
@@ -6703,13 +6703,13 @@
         <v>137.0453218915535</v>
       </c>
       <c r="K32" t="n">
-        <v>392.9020949275676</v>
+        <v>392.9020949275672</v>
       </c>
       <c r="L32" t="n">
-        <v>762.591673824455</v>
+        <v>762.5916738244546</v>
       </c>
       <c r="M32" t="n">
-        <v>1190.549107376119</v>
+        <v>1190.549107376118</v>
       </c>
       <c r="N32" t="n">
         <v>1610.799342072557</v>
@@ -6721,31 +6721,31 @@
         <v>2224.886645733487</v>
       </c>
       <c r="Q32" t="n">
-        <v>2344.749822082217</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="R32" t="n">
-        <v>2270.376276991246</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S32" t="n">
-        <v>2270.376276991246</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T32" t="n">
-        <v>2270.376276991246</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="U32" t="n">
-        <v>2016.589854876113</v>
+        <v>2090.963399967084</v>
       </c>
       <c r="V32" t="n">
-        <v>1685.526967532543</v>
+        <v>1759.900512623513</v>
       </c>
       <c r="W32" t="n">
-        <v>1332.758312262428</v>
+        <v>1407.131857353399</v>
       </c>
       <c r="X32" t="n">
-        <v>1332.758312262428</v>
+        <v>1407.131857353399</v>
       </c>
       <c r="Y32" t="n">
-        <v>1332.758312262428</v>
+        <v>1407.131857353399</v>
       </c>
     </row>
     <row r="33">
@@ -6755,22 +6755,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>622.1327649551154</v>
+        <v>876.3701216833169</v>
       </c>
       <c r="C33" t="n">
-        <v>447.6797356739884</v>
+        <v>701.91709240219</v>
       </c>
       <c r="D33" t="n">
-        <v>447.6797356739884</v>
+        <v>552.9826827409387</v>
       </c>
       <c r="E33" t="n">
-        <v>288.4422806685329</v>
+        <v>393.7452277354832</v>
       </c>
       <c r="F33" t="n">
-        <v>288.4422806685329</v>
+        <v>359.7197682838247</v>
       </c>
       <c r="G33" t="n">
-        <v>150.3673948012249</v>
+        <v>221.6448824165167</v>
       </c>
       <c r="H33" t="n">
         <v>114.6107419524668</v>
@@ -6785,13 +6785,13 @@
         <v>336.0641406922996</v>
       </c>
       <c r="L33" t="n">
-        <v>491.2196383161158</v>
+        <v>705.6153558007836</v>
       </c>
       <c r="M33" t="n">
-        <v>974.4476973832902</v>
+        <v>1188.843414867958</v>
       </c>
       <c r="N33" t="n">
-        <v>1486.172378671464</v>
+        <v>1700.568096156132</v>
       </c>
       <c r="O33" t="n">
         <v>1887.88481026779</v>
@@ -6818,13 +6818,13 @@
         <v>1460.197257673872</v>
       </c>
       <c r="W33" t="n">
-        <v>1205.95990094567</v>
+        <v>1460.197257673872</v>
       </c>
       <c r="X33" t="n">
-        <v>998.1084007401373</v>
+        <v>1252.345757468339</v>
       </c>
       <c r="Y33" t="n">
-        <v>790.3481019751835</v>
+        <v>1044.585458703385</v>
       </c>
     </row>
     <row r="34">
@@ -6834,10 +6834,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>46.89499644164432</v>
+        <v>197.0116358539801</v>
       </c>
       <c r="C34" t="n">
-        <v>46.89499644164432</v>
+        <v>197.0116358539801</v>
       </c>
       <c r="D34" t="n">
         <v>46.89499644164432</v>
@@ -6891,19 +6891,19 @@
         <v>453.4106385108907</v>
       </c>
       <c r="U34" t="n">
-        <v>164.2294932568138</v>
+        <v>453.4106385108907</v>
       </c>
       <c r="V34" t="n">
-        <v>46.89499644164432</v>
+        <v>453.4106385108907</v>
       </c>
       <c r="W34" t="n">
-        <v>46.89499644164432</v>
+        <v>453.4106385108907</v>
       </c>
       <c r="X34" t="n">
-        <v>46.89499644164432</v>
+        <v>453.4106385108907</v>
       </c>
       <c r="Y34" t="n">
-        <v>46.89499644164432</v>
+        <v>232.6180593673606</v>
       </c>
     </row>
     <row r="35">
@@ -6913,37 +6913,37 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1041.491250111708</v>
+        <v>1618.515408551022</v>
       </c>
       <c r="C35" t="n">
-        <v>1041.491250111708</v>
+        <v>1249.552891610611</v>
       </c>
       <c r="D35" t="n">
-        <v>1041.491250111708</v>
+        <v>1206.501278074326</v>
       </c>
       <c r="E35" t="n">
-        <v>1041.491250111708</v>
+        <v>1206.501278074326</v>
       </c>
       <c r="F35" t="n">
-        <v>630.5053453221001</v>
+        <v>795.5153732847182</v>
       </c>
       <c r="G35" t="n">
-        <v>212.2335778049849</v>
+        <v>377.243605767603</v>
       </c>
       <c r="H35" t="n">
-        <v>212.2335778049849</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I35" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J35" t="n">
-        <v>137.0453218915536</v>
+        <v>137.0453218915535</v>
       </c>
       <c r="K35" t="n">
-        <v>392.9020949275675</v>
+        <v>392.9020949275676</v>
       </c>
       <c r="L35" t="n">
-        <v>762.591673824455</v>
+        <v>762.5916738244551</v>
       </c>
       <c r="M35" t="n">
         <v>1190.549107376119</v>
@@ -6970,19 +6970,19 @@
         <v>2344.749822082216</v>
       </c>
       <c r="U35" t="n">
-        <v>2090.963399967084</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="V35" t="n">
-        <v>1759.900512623513</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="W35" t="n">
-        <v>1759.900512623513</v>
+        <v>1991.981166812102</v>
       </c>
       <c r="X35" t="n">
-        <v>1431.630582087519</v>
+        <v>1618.515408551022</v>
       </c>
       <c r="Y35" t="n">
-        <v>1041.491250111708</v>
+        <v>1618.515408551022</v>
       </c>
     </row>
     <row r="36">
@@ -6992,49 +6992,49 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>622.1327649551154</v>
+        <v>829.8930637200692</v>
       </c>
       <c r="C36" t="n">
-        <v>447.6797356739884</v>
+        <v>814.4261909236466</v>
       </c>
       <c r="D36" t="n">
-        <v>447.6797356739884</v>
+        <v>665.4917812623953</v>
       </c>
       <c r="E36" t="n">
-        <v>288.4422806685329</v>
+        <v>506.2543262569397</v>
       </c>
       <c r="F36" t="n">
-        <v>153.9291369056942</v>
+        <v>359.7197682838247</v>
       </c>
       <c r="G36" t="n">
-        <v>153.9291369056942</v>
+        <v>221.6448824165167</v>
       </c>
       <c r="H36" t="n">
-        <v>46.89499644164432</v>
+        <v>114.6107419524668</v>
       </c>
       <c r="I36" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J36" t="n">
-        <v>106.8945330050503</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K36" t="n">
-        <v>336.0641406922996</v>
+        <v>276.0646041288937</v>
       </c>
       <c r="L36" t="n">
-        <v>705.6153558007836</v>
+        <v>645.6158192373775</v>
       </c>
       <c r="M36" t="n">
-        <v>1188.843414867958</v>
+        <v>1128.843878304552</v>
       </c>
       <c r="N36" t="n">
-        <v>1700.568096156132</v>
+        <v>1637.630816213677</v>
       </c>
       <c r="O36" t="n">
-        <v>1887.88481026779</v>
+        <v>2039.343247810003</v>
       </c>
       <c r="P36" t="n">
-        <v>2193.291384540003</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q36" t="n">
         <v>2344.749822082216</v>
@@ -7061,7 +7061,7 @@
         <v>998.1084007401373</v>
       </c>
       <c r="Y36" t="n">
-        <v>790.3481019751835</v>
+        <v>998.1084007401373</v>
       </c>
     </row>
     <row r="37">
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>102.3180182963936</v>
+        <v>353.7846527006242</v>
       </c>
       <c r="C37" t="n">
-        <v>102.3180182963936</v>
+        <v>353.7846527006242</v>
       </c>
       <c r="D37" t="n">
-        <v>102.3180182963936</v>
+        <v>353.7846527006242</v>
       </c>
       <c r="E37" t="n">
-        <v>102.3180182963936</v>
+        <v>205.8715591182311</v>
       </c>
       <c r="F37" t="n">
-        <v>102.3180182963936</v>
+        <v>205.8715591182311</v>
       </c>
       <c r="G37" t="n">
-        <v>102.3180182963936</v>
+        <v>205.8715591182311</v>
       </c>
       <c r="H37" t="n">
-        <v>102.3180182963936</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I37" t="n">
-        <v>102.3180182963936</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="J37" t="n">
         <v>46.89499644164432</v>
@@ -7128,19 +7128,19 @@
         <v>607.7685734363102</v>
       </c>
       <c r="U37" t="n">
-        <v>318.5874281822333</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="V37" t="n">
-        <v>318.5874281822333</v>
+        <v>581.7742035986415</v>
       </c>
       <c r="W37" t="n">
-        <v>318.5874281822333</v>
+        <v>581.7742035986415</v>
       </c>
       <c r="X37" t="n">
-        <v>102.3180182963936</v>
+        <v>353.7846527006242</v>
       </c>
       <c r="Y37" t="n">
-        <v>102.3180182963936</v>
+        <v>353.7846527006242</v>
       </c>
     </row>
     <row r="38">
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>960.8539546480588</v>
+        <v>774.1232119888066</v>
       </c>
       <c r="C38" t="n">
-        <v>960.8539546480588</v>
+        <v>405.1606950483948</v>
       </c>
       <c r="D38" t="n">
-        <v>960.8539546480588</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="E38" t="n">
-        <v>960.8539546480588</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="F38" t="n">
-        <v>960.8539546480588</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G38" t="n">
-        <v>542.5821871309436</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H38" t="n">
-        <v>212.2335778049849</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I38" t="n">
         <v>46.89499644164432</v>
@@ -7177,13 +7177,13 @@
         <v>137.0453218915535</v>
       </c>
       <c r="K38" t="n">
-        <v>392.9020949275676</v>
+        <v>392.9020949275678</v>
       </c>
       <c r="L38" t="n">
-        <v>762.5916738244549</v>
+        <v>762.5916738244551</v>
       </c>
       <c r="M38" t="n">
-        <v>1190.549107376118</v>
+        <v>1190.549107376119</v>
       </c>
       <c r="N38" t="n">
         <v>1610.799342072557</v>
@@ -7198,28 +7198,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R38" t="n">
-        <v>2344.749822082216</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="S38" t="n">
-        <v>2161.554709220192</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="T38" t="n">
-        <v>2161.554709220192</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="U38" t="n">
-        <v>1907.76828710506</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="V38" t="n">
-        <v>1576.705399761489</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="W38" t="n">
-        <v>1350.993286623871</v>
+        <v>1917.607621721131</v>
       </c>
       <c r="X38" t="n">
-        <v>1350.993286623871</v>
+        <v>1544.141863460052</v>
       </c>
       <c r="Y38" t="n">
-        <v>960.8539546480588</v>
+        <v>1160.723052052928</v>
       </c>
     </row>
     <row r="39">
@@ -7229,16 +7229,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>693.4102525704071</v>
+        <v>850.313229300958</v>
       </c>
       <c r="C39" t="n">
-        <v>518.9572232892801</v>
+        <v>814.4261909236466</v>
       </c>
       <c r="D39" t="n">
-        <v>518.9572232892801</v>
+        <v>665.4917812623953</v>
       </c>
       <c r="E39" t="n">
-        <v>359.7197682838247</v>
+        <v>506.2543262569397</v>
       </c>
       <c r="F39" t="n">
         <v>359.7197682838247</v>
@@ -7253,25 +7253,25 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J39" t="n">
-        <v>106.8945330050503</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K39" t="n">
-        <v>336.0641406922996</v>
+        <v>276.0646041288937</v>
       </c>
       <c r="L39" t="n">
-        <v>705.6153558007836</v>
+        <v>645.6158192373775</v>
       </c>
       <c r="M39" t="n">
-        <v>1188.843414867958</v>
+        <v>1128.843878304552</v>
       </c>
       <c r="N39" t="n">
-        <v>1486.172378671464</v>
+        <v>1640.568559592725</v>
       </c>
       <c r="O39" t="n">
-        <v>1887.88481026779</v>
+        <v>2042.280991189052</v>
       </c>
       <c r="P39" t="n">
-        <v>2193.291384540003</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q39" t="n">
         <v>2344.749822082216</v>
@@ -7286,19 +7286,19 @@
         <v>1923.529830251457</v>
       </c>
       <c r="U39" t="n">
-        <v>1695.349365905614</v>
+        <v>1923.529830251457</v>
       </c>
       <c r="V39" t="n">
-        <v>1460.197257673872</v>
+        <v>1688.377722019714</v>
       </c>
       <c r="W39" t="n">
-        <v>1205.95990094567</v>
+        <v>1434.140365291513</v>
       </c>
       <c r="X39" t="n">
-        <v>998.1084007401373</v>
+        <v>1226.28886508598</v>
       </c>
       <c r="Y39" t="n">
-        <v>790.3481019751835</v>
+        <v>1018.528566321026</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2093.295585216358</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="C40" t="n">
-        <v>1924.359402288451</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="D40" t="n">
-        <v>1924.359402288451</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="E40" t="n">
-        <v>1924.359402288451</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="F40" t="n">
-        <v>1924.359402288451</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G40" t="n">
-        <v>1924.359402288451</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H40" t="n">
-        <v>1924.359402288451</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I40" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="J40" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K40" t="n">
-        <v>1824.448464912935</v>
+        <v>87.46721626702976</v>
       </c>
       <c r="L40" t="n">
-        <v>1931.893372366003</v>
+        <v>194.9121237200978</v>
       </c>
       <c r="M40" t="n">
-        <v>2055.568085482113</v>
+        <v>318.5868368362075</v>
       </c>
       <c r="N40" t="n">
-        <v>2181.736706768751</v>
+        <v>444.7554581228448</v>
       </c>
       <c r="O40" t="n">
-        <v>2282.257553995577</v>
+        <v>545.2763053496715</v>
       </c>
       <c r="P40" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="Q40" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="R40" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="S40" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="T40" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="U40" t="n">
-        <v>2344.749822082216</v>
+        <v>318.5874281822333</v>
       </c>
       <c r="V40" t="n">
-        <v>2344.749822082216</v>
+        <v>318.5874281822333</v>
       </c>
       <c r="W40" t="n">
-        <v>2344.749822082216</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="X40" t="n">
-        <v>2314.088164359888</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="Y40" t="n">
-        <v>2093.295585216358</v>
+        <v>46.89499644164432</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>911.5447040713552</v>
+        <v>1406.467763531879</v>
       </c>
       <c r="C41" t="n">
-        <v>542.5821871309436</v>
+        <v>1406.467763531879</v>
       </c>
       <c r="D41" t="n">
-        <v>542.5821871309436</v>
+        <v>1406.467763531879</v>
       </c>
       <c r="E41" t="n">
-        <v>542.5821871309436</v>
+        <v>1020.679510933635</v>
       </c>
       <c r="F41" t="n">
-        <v>542.5821871309436</v>
+        <v>630.5053453221001</v>
       </c>
       <c r="G41" t="n">
-        <v>542.5821871309436</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="H41" t="n">
         <v>212.2335778049849</v>
@@ -7411,13 +7411,13 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J41" t="n">
-        <v>137.0453218915534</v>
+        <v>137.0453218915535</v>
       </c>
       <c r="K41" t="n">
-        <v>392.9020949275675</v>
+        <v>392.9020949275671</v>
       </c>
       <c r="L41" t="n">
-        <v>762.5916738244549</v>
+        <v>762.5916738244546</v>
       </c>
       <c r="M41" t="n">
         <v>1190.549107376118</v>
@@ -7444,19 +7444,19 @@
         <v>2050.393517622824</v>
       </c>
       <c r="U41" t="n">
-        <v>2024.378957666671</v>
+        <v>1796.607095507691</v>
       </c>
       <c r="V41" t="n">
-        <v>2024.378957666671</v>
+        <v>1796.607095507691</v>
       </c>
       <c r="W41" t="n">
-        <v>1671.610302396557</v>
+        <v>1796.607095507691</v>
       </c>
       <c r="X41" t="n">
-        <v>1298.144544135477</v>
+        <v>1796.607095507691</v>
       </c>
       <c r="Y41" t="n">
-        <v>1298.144544135477</v>
+        <v>1406.467763531879</v>
       </c>
     </row>
     <row r="42">
@@ -7466,25 +7466,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>988.8792202047736</v>
+        <v>850.7918407605284</v>
       </c>
       <c r="C42" t="n">
-        <v>814.4261909236466</v>
+        <v>746.7104454128239</v>
       </c>
       <c r="D42" t="n">
-        <v>665.4917812623953</v>
+        <v>597.7760357515726</v>
       </c>
       <c r="E42" t="n">
-        <v>506.2543262569397</v>
+        <v>438.5385807461172</v>
       </c>
       <c r="F42" t="n">
-        <v>359.7197682838247</v>
+        <v>292.0040227730022</v>
       </c>
       <c r="G42" t="n">
-        <v>221.6448824165167</v>
+        <v>153.9291369056942</v>
       </c>
       <c r="H42" t="n">
-        <v>114.6107419524668</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I42" t="n">
         <v>46.89499644164432</v>
@@ -7496,16 +7496,16 @@
         <v>276.0646041288937</v>
       </c>
       <c r="L42" t="n">
-        <v>645.6158192373775</v>
+        <v>645.6158192373777</v>
       </c>
       <c r="M42" t="n">
         <v>1128.843878304552</v>
       </c>
       <c r="N42" t="n">
-        <v>1640.568559592725</v>
+        <v>1637.630816213677</v>
       </c>
       <c r="O42" t="n">
-        <v>2042.280991189052</v>
+        <v>2039.343247810003</v>
       </c>
       <c r="P42" t="n">
         <v>2344.749822082216</v>
@@ -7517,25 +7517,25 @@
         <v>2344.749822082216</v>
       </c>
       <c r="S42" t="n">
-        <v>2254.666875215342</v>
+        <v>2183.516266982771</v>
       </c>
       <c r="T42" t="n">
-        <v>2055.124177269372</v>
+        <v>1983.973569036802</v>
       </c>
       <c r="U42" t="n">
-        <v>1826.94371292353</v>
+        <v>1755.793104690959</v>
       </c>
       <c r="V42" t="n">
-        <v>1826.94371292353</v>
+        <v>1520.640996459217</v>
       </c>
       <c r="W42" t="n">
-        <v>1572.706356195328</v>
+        <v>1266.403639731015</v>
       </c>
       <c r="X42" t="n">
-        <v>1364.854855989795</v>
+        <v>1058.552139525482</v>
       </c>
       <c r="Y42" t="n">
-        <v>1157.094557224842</v>
+        <v>850.7918407605284</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1933.992884499886</v>
+        <v>513.86091236428</v>
       </c>
       <c r="C43" t="n">
-        <v>1933.992884499886</v>
+        <v>344.9247294363731</v>
       </c>
       <c r="D43" t="n">
-        <v>1783.87624508755</v>
+        <v>194.8080900240374</v>
       </c>
       <c r="E43" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="F43" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G43" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H43" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I43" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="J43" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K43" t="n">
-        <v>1824.448464912935</v>
+        <v>87.46721626702977</v>
       </c>
       <c r="L43" t="n">
-        <v>1931.893372366003</v>
+        <v>194.9121237200978</v>
       </c>
       <c r="M43" t="n">
-        <v>2055.568085482113</v>
+        <v>318.5868368362075</v>
       </c>
       <c r="N43" t="n">
-        <v>2181.736706768751</v>
+        <v>444.7554581228448</v>
       </c>
       <c r="O43" t="n">
-        <v>2282.257553995577</v>
+        <v>545.2763053496715</v>
       </c>
       <c r="P43" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="Q43" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="R43" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="S43" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="T43" t="n">
-        <v>2344.749822082216</v>
+        <v>513.86091236428</v>
       </c>
       <c r="U43" t="n">
-        <v>2344.749822082216</v>
+        <v>513.86091236428</v>
       </c>
       <c r="V43" t="n">
-        <v>2344.749822082216</v>
+        <v>513.86091236428</v>
       </c>
       <c r="W43" t="n">
-        <v>2344.749822082216</v>
+        <v>513.86091236428</v>
       </c>
       <c r="X43" t="n">
-        <v>2336.433928473655</v>
+        <v>513.86091236428</v>
       </c>
       <c r="Y43" t="n">
-        <v>2115.641349330125</v>
+        <v>513.86091236428</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1867.1984047608</v>
+        <v>1219.917533497415</v>
       </c>
       <c r="C44" t="n">
-        <v>1498.235887820388</v>
+        <v>850.9550165570038</v>
       </c>
       <c r="D44" t="n">
-        <v>1498.235887820388</v>
+        <v>850.9550165570038</v>
       </c>
       <c r="E44" t="n">
-        <v>1371.839859437666</v>
+        <v>465.1667639587595</v>
       </c>
       <c r="F44" t="n">
-        <v>960.8539546480588</v>
+        <v>465.1667639587595</v>
       </c>
       <c r="G44" t="n">
-        <v>542.5821871309436</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H44" t="n">
-        <v>212.2335778049849</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I44" t="n">
         <v>46.89499644164432</v>
@@ -7675,25 +7675,25 @@
         <v>2270.376276991246</v>
       </c>
       <c r="S44" t="n">
-        <v>2087.181164129222</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="T44" t="n">
-        <v>1867.1984047608</v>
+        <v>2050.393517622824</v>
       </c>
       <c r="U44" t="n">
-        <v>1867.1984047608</v>
+        <v>1796.607095507691</v>
       </c>
       <c r="V44" t="n">
-        <v>1867.1984047608</v>
+        <v>1465.54420816412</v>
       </c>
       <c r="W44" t="n">
-        <v>1867.1984047608</v>
+        <v>1219.917533497415</v>
       </c>
       <c r="X44" t="n">
-        <v>1867.1984047608</v>
+        <v>1219.917533497415</v>
       </c>
       <c r="Y44" t="n">
-        <v>1867.1984047608</v>
+        <v>1219.917533497415</v>
       </c>
     </row>
     <row r="45">
@@ -7703,49 +7703,49 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>857.284873186858</v>
+        <v>761.9260196884954</v>
       </c>
       <c r="C45" t="n">
-        <v>682.831843905731</v>
+        <v>587.4729904073685</v>
       </c>
       <c r="D45" t="n">
-        <v>533.8974342444798</v>
+        <v>438.5385807461172</v>
       </c>
       <c r="E45" t="n">
-        <v>506.2543262569397</v>
+        <v>438.5385807461172</v>
       </c>
       <c r="F45" t="n">
-        <v>359.7197682838247</v>
+        <v>292.0040227730022</v>
       </c>
       <c r="G45" t="n">
-        <v>221.6448824165167</v>
+        <v>153.9291369056942</v>
       </c>
       <c r="H45" t="n">
-        <v>114.6107419524668</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I45" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J45" t="n">
-        <v>106.8945330050503</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K45" t="n">
-        <v>336.0641406922997</v>
+        <v>276.0646041288937</v>
       </c>
       <c r="L45" t="n">
-        <v>491.2196383161158</v>
+        <v>642.6780758583286</v>
       </c>
       <c r="M45" t="n">
-        <v>974.4476973832902</v>
+        <v>1125.906134925503</v>
       </c>
       <c r="N45" t="n">
-        <v>1486.172378671464</v>
+        <v>1637.630816213677</v>
       </c>
       <c r="O45" t="n">
-        <v>1887.88481026779</v>
+        <v>2039.343247810003</v>
       </c>
       <c r="P45" t="n">
-        <v>2193.291384540003</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q45" t="n">
         <v>2344.749822082216</v>
@@ -7763,16 +7763,16 @@
         <v>1695.349365905614</v>
       </c>
       <c r="V45" t="n">
-        <v>1695.349365905614</v>
+        <v>1599.990512407252</v>
       </c>
       <c r="W45" t="n">
-        <v>1441.112009177413</v>
+        <v>1345.75315567905</v>
       </c>
       <c r="X45" t="n">
-        <v>1233.26050897188</v>
+        <v>1137.901655473517</v>
       </c>
       <c r="Y45" t="n">
-        <v>1025.500210206926</v>
+        <v>930.1413567085635</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1931.789338669943</v>
+        <v>411.9391157507847</v>
       </c>
       <c r="C46" t="n">
-        <v>1931.789338669943</v>
+        <v>411.9391157507847</v>
       </c>
       <c r="D46" t="n">
-        <v>1931.789338669943</v>
+        <v>411.9391157507847</v>
       </c>
       <c r="E46" t="n">
-        <v>1783.87624508755</v>
+        <v>411.9391157507847</v>
       </c>
       <c r="F46" t="n">
-        <v>1783.87624508755</v>
+        <v>411.9391157507847</v>
       </c>
       <c r="G46" t="n">
-        <v>1783.87624508755</v>
+        <v>242.8011754972942</v>
       </c>
       <c r="H46" t="n">
-        <v>1783.87624508755</v>
+        <v>242.8011754972942</v>
       </c>
       <c r="I46" t="n">
-        <v>1783.87624508755</v>
+        <v>102.3180182963936</v>
       </c>
       <c r="J46" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K46" t="n">
-        <v>1824.448464912935</v>
+        <v>87.46721626702977</v>
       </c>
       <c r="L46" t="n">
-        <v>1931.893372366003</v>
+        <v>194.9121237200978</v>
       </c>
       <c r="M46" t="n">
-        <v>2055.568085482113</v>
+        <v>318.5868368362075</v>
       </c>
       <c r="N46" t="n">
-        <v>2181.736706768751</v>
+        <v>444.7554581228448</v>
       </c>
       <c r="O46" t="n">
-        <v>2282.257553995577</v>
+        <v>545.2763053496715</v>
       </c>
       <c r="P46" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="Q46" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="R46" t="n">
-        <v>2190.391887156797</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="S46" t="n">
-        <v>2190.391887156797</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="T46" t="n">
-        <v>2152.581917813473</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="U46" t="n">
-        <v>2152.581917813473</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="V46" t="n">
-        <v>2152.581917813473</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="W46" t="n">
-        <v>2152.581917813473</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="X46" t="n">
-        <v>2152.581917813473</v>
+        <v>411.9391157507847</v>
       </c>
       <c r="Y46" t="n">
-        <v>1931.789338669943</v>
+        <v>411.9391157507847</v>
       </c>
     </row>
   </sheetData>
@@ -7984,7 +7984,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
-        <v>417.6612145504505</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M2" t="n">
         <v>449.5135334928325</v>
@@ -8063,19 +8063,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>173.111405903722</v>
       </c>
       <c r="M3" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
-        <v>231.1529892133072</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8306,16 +8306,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O6" t="n">
-        <v>142.5962444444444</v>
+        <v>242.4075215744184</v>
       </c>
       <c r="P6" t="n">
-        <v>247.3552705420797</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8543,13 +8543,13 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>231.1529892133072</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O9" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>177.2597568922521</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8768,7 +8768,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>65.48544285212</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
@@ -8777,7 +8777,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>249.1437329574062</v>
+        <v>462.7376461954049</v>
       </c>
       <c r="N12" t="n">
         <v>479.3423743435536</v>
@@ -8789,7 +8789,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>57.0889669861391</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9020,10 +9020,10 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>177.3009884841359</v>
       </c>
       <c r="P15" t="n">
-        <v>101.9014378473433</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
@@ -9242,7 +9242,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>65.48544285212</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9251,7 +9251,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>249.1437329574062</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
         <v>479.3423743435536</v>
@@ -9260,10 +9260,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>315.495351085342</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>57.0889669861391</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9479,7 +9479,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>65.48544285212</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9497,10 +9497,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>162.5070303356325</v>
+        <v>254.8897585970532</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>57.08896698613911</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9719,10 +9719,10 @@
         <v>65.48544285212</v>
       </c>
       <c r="K24" t="n">
-        <v>108.5094987082738</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>214.8846069991544</v>
       </c>
       <c r="M24" t="n">
         <v>465.7050637499999</v>
@@ -9956,7 +9956,7 @@
         <v>65.48544285212</v>
       </c>
       <c r="K27" t="n">
-        <v>108.5094987082738</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
@@ -9971,10 +9971,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>315.4953510853424</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>57.08896698613911</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10193,13 +10193,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>47.90390621998491</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>465.7050637499999</v>
+        <v>249.1437329574062</v>
       </c>
       <c r="N30" t="n">
         <v>479.3423743435536</v>
@@ -10433,7 +10433,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>154.2790145108656</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
         <v>465.7050637499999</v>
@@ -10442,7 +10442,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>177.3009884841359</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
@@ -10664,7 +10664,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>65.48544285212</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
@@ -10676,16 +10676,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>476.3749567889587</v>
       </c>
       <c r="O36" t="n">
-        <v>177.3009884841359</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>57.08896698613911</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10901,7 +10901,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>65.48544285212</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -10913,16 +10913,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>262.7810435509599</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>315.4953510853424</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>57.08896698613911</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11062,7 +11062,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711642</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
@@ -11150,16 +11150,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>476.3749567889585</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>315.4953510853424</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>57.08896698613911</v>
+        <v>57.0889669861391</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11375,13 +11375,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>65.48544285212</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>154.2790145108655</v>
+        <v>367.8729277488642</v>
       </c>
       <c r="M45" t="n">
         <v>465.7050637499999</v>
@@ -11396,7 +11396,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>57.0889669861391</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23269,16 +23269,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>324.3761707630432</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>135.2830567960694</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23311,7 +23311,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>251.2485578939812</v>
@@ -23339,25 +23339,25 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>67.03858805571424</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23393,13 +23393,13 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>32.43152312663702</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>45.30127931546193</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -23424,13 +23424,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>115.8991422767766</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>167.4465608509556</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23460,13 +23460,13 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>40.5744171370463</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>214.5288682289405</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>225.6194376234954</v>
@@ -23484,7 +23484,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>181.5419427413637</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>105.3745982246663</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -23512,10 +23512,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23542,25 +23542,25 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>73.62980964006111</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>251.2485578939812</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>249.7105923989285</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23573,7 +23573,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -23582,19 +23582,19 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>38.90072659189319</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23636,13 +23636,13 @@
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>20.70215791122232</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>142.8986370415878</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23697,7 +23697,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>40.5744171370463</v>
       </c>
       <c r="R16" t="n">
         <v>152.8143555761653</v>
@@ -23709,10 +23709,10 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2893338015361</v>
+        <v>175.2285835524071</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -23721,7 +23721,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23734,25 +23734,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>60.6875523211117</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H17" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23779,28 +23779,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>73.62980964006111</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>99.51265782989394</v>
       </c>
       <c r="T17" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23816,10 +23816,10 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -23858,7 +23858,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>9.951229355218317</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -23876,10 +23876,10 @@
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>205.4339102417605</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -23901,7 +23901,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>167.4465608509556</v>
@@ -23910,7 +23910,7 @@
         <v>157.3867970498209</v>
       </c>
       <c r="I19" t="n">
-        <v>139.0783256288915</v>
+        <v>15.75753076369455</v>
       </c>
       <c r="J19" t="n">
         <v>54.86879163620181</v>
@@ -23937,13 +23937,13 @@
         <v>40.5744171370463</v>
       </c>
       <c r="R19" t="n">
-        <v>37.69782020388202</v>
+        <v>152.8143555761653</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>214.5288682289405</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>225.6194376234954</v>
       </c>
       <c r="U19" t="n">
         <v>286.2893338015361</v>
@@ -23952,7 +23952,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23968,22 +23968,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>5.21185782407332</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>2.857852141031685</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H20" t="n">
         <v>327.0451232326991</v>
@@ -24016,7 +24016,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>73.62980964006113</v>
       </c>
       <c r="S20" t="n">
         <v>181.3631617334038</v>
@@ -24025,7 +24025,7 @@
         <v>217.7829317747374</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -24050,13 +24050,13 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>130.2784035477364</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -24107,7 +24107,7 @@
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
@@ -24116,7 +24116,7 @@
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>57.98884467712179</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -24171,7 +24171,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>40.57441713704631</v>
       </c>
       <c r="R22" t="n">
         <v>152.8143555761653</v>
@@ -24180,7 +24180,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>177.595525088591</v>
+        <v>137.0211079515447</v>
       </c>
       <c r="U22" t="n">
         <v>286.2893338015361</v>
@@ -24214,7 +24214,7 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>321.8341738891888</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -24226,7 +24226,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24253,16 +24253,16 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>73.62980964006113</v>
       </c>
       <c r="S23" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -24271,10 +24271,10 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>185.4050070082118</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24284,13 +24284,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -24302,10 +24302,10 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>67.03858805571426</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24332,7 +24332,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>42.92542614420704</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -24353,7 +24353,7 @@
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>23.54341993217045</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -24369,10 +24369,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>12.35884213020012</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>24.28264300288527</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24408,16 +24408,16 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>40.57441713704631</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>152.8143555761653</v>
       </c>
       <c r="S25" t="n">
-        <v>214.5288682289405</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>225.6194376234954</v>
       </c>
       <c r="U25" t="n">
         <v>286.2893338015361</v>
@@ -24432,7 +24432,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24451,19 +24451,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>317.0006720779633</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>327.0451232326991</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24490,13 +24490,13 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>73.62980964006113</v>
       </c>
       <c r="S26" t="n">
         <v>181.3631617334038</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>74.69940159463451</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -24508,7 +24508,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24521,25 +24521,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>145.594608844269</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>112.0459792443682</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -24569,7 +24569,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>59.83930139749142</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24645,10 +24645,10 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>40.57441713704631</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>152.8143555761653</v>
       </c>
       <c r="S28" t="n">
         <v>214.5288682289405</v>
@@ -24657,16 +24657,16 @@
         <v>225.6194376234954</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2893338015361</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>115.9712302013575</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>197.3794710953452</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24682,13 +24682,13 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -24700,7 +24700,7 @@
         <v>327.0451232326991</v>
       </c>
       <c r="I29" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24727,7 +24727,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>73.62980964006113</v>
       </c>
       <c r="S29" t="n">
         <v>181.3631617334038</v>
@@ -24736,13 +24736,13 @@
         <v>217.7829317747374</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2485578939812</v>
+        <v>36.01187583612813</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0.3606392981116073</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -24767,16 +24767,16 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>112.0459792443682</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>111.384007536242</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -24821,7 +24821,7 @@
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
@@ -24837,10 +24837,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>90.04936365494248</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24849,7 +24849,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>167.4465608509556</v>
@@ -24885,7 +24885,7 @@
         <v>40.57441713704631</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>152.8143555761653</v>
       </c>
       <c r="S31" t="n">
         <v>214.5288682289405</v>
@@ -24894,13 +24894,13 @@
         <v>225.6194376234954</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2893338015361</v>
+        <v>269.6851342372358</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24916,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>142.5064142064943</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -24925,16 +24925,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>208.1197481551037</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>163.6851955497072</v>
@@ -24964,7 +24964,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>73.62980964006113</v>
       </c>
       <c r="S32" t="n">
         <v>181.3631617334038</v>
@@ -25001,19 +25001,19 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>111.384007536242</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>70.5647127391389</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -25058,7 +25058,7 @@
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
@@ -25074,13 +25074,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>144.5816209036905</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25131,10 +25131,10 @@
         <v>225.6194376234954</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2893338015361</v>
       </c>
       <c r="V34" t="n">
-        <v>135.9764914768102</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -25143,7 +25143,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25156,10 +25156,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>312.0619442197608</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -25171,10 +25171,10 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25210,19 +25210,19 @@
         <v>217.7829317747374</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>44.74386944783544</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25235,25 +25235,25 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>157.3962949198573</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>11.90120006817364</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>136.6941370086349</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>67.03858805571426</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25301,7 +25301,7 @@
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -25320,7 +25320,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25329,13 +25329,13 @@
         <v>167.4465608509556</v>
       </c>
       <c r="H37" t="n">
-        <v>157.3867970498209</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>139.0783256288916</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>54.86879163620181</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25368,16 +25368,16 @@
         <v>225.6194376234954</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2893338015361</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>226.4032171845359</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>11.60293960205587</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25390,13 +25390,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -25405,13 +25405,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25438,28 +25438,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>73.62980964006113</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T38" t="n">
         <v>217.7829317747374</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>125.7859767111708</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>6.653315363001582</v>
       </c>
     </row>
     <row r="39">
@@ -25469,19 +25469,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>70.56471273913878</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>137.1803309947774</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -25526,7 +25526,7 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>225.8986597023843</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -25551,7 +25551,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25569,7 +25569,7 @@
         <v>157.3867970498209</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>139.0783256288916</v>
       </c>
       <c r="J40" t="n">
         <v>54.86879163620181</v>
@@ -25605,19 +25605,19 @@
         <v>225.6194376234954</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2893338015361</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>17.5474909134079</v>
       </c>
       <c r="X40" t="n">
-        <v>195.3546142439319</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25627,25 +25627,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>20.60362178629174</v>
       </c>
       <c r="G41" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25684,19 +25684,19 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>225.4941435373898</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25706,10 +25706,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>69.66791759408827</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -25727,7 +25727,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>67.03858805571424</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25754,10 +25754,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>59.83930139749142</v>
+        <v>59.83930139749141</v>
       </c>
       <c r="S42" t="n">
-        <v>70.43910215024454</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
@@ -25766,7 +25766,7 @@
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
         <v>0</v>
@@ -25785,16 +25785,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25806,7 +25806,7 @@
         <v>157.3867970498209</v>
       </c>
       <c r="I43" t="n">
-        <v>139.0783256288916</v>
+        <v>139.0783256288915</v>
       </c>
       <c r="J43" t="n">
         <v>54.86879163620181</v>
@@ -25830,7 +25830,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>40.57441713704631</v>
+        <v>40.5744171370463</v>
       </c>
       <c r="R43" t="n">
         <v>152.8143555761653</v>
@@ -25839,7 +25839,7 @@
         <v>214.5288682289405</v>
       </c>
       <c r="T43" t="n">
-        <v>225.6194376234954</v>
+        <v>132.6508531621855</v>
       </c>
       <c r="U43" t="n">
         <v>286.2893338015361</v>
@@ -25851,10 +25851,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>217.4769207165617</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -25873,19 +25873,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>256.7983019733672</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,19 +25915,19 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>106.0705607973751</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -25952,7 +25952,7 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>130.2784035477363</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
@@ -25964,7 +25964,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>67.03858805571424</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -26003,7 +26003,7 @@
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>138.3953221860463</v>
       </c>
       <c r="W45" t="n">
         <v>0</v>
@@ -26031,22 +26031,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>167.4465608509556</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>157.3867970498209</v>
       </c>
       <c r="I46" t="n">
-        <v>139.0783256288915</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>54.86879163620181</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26070,13 +26070,13 @@
         <v>40.5744171370463</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>152.8143555761653</v>
       </c>
       <c r="S46" t="n">
         <v>214.5288682289405</v>
       </c>
       <c r="T46" t="n">
-        <v>188.1875679736049</v>
+        <v>225.6194376234954</v>
       </c>
       <c r="U46" t="n">
         <v>286.2893338015361</v>
@@ -26088,10 +26088,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>31.83849228036689</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>546262.1125163627</v>
+        <v>546262.1125163626</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>546262.1125163625</v>
+        <v>546262.1125163626</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>546262.1125163626</v>
+        <v>546262.1125163625</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>546262.1125163628</v>
+        <v>546262.1125163627</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>546262.1125163627</v>
+        <v>546262.1125163625</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>546262.1125163626</v>
+        <v>546262.1125163625</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>546262.1125163627</v>
+        <v>546262.1125163626</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>546262.1125163627</v>
+        <v>546262.1125163626</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>546262.1125163627</v>
+        <v>546262.1125163626</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>546262.1125163627</v>
+        <v>546262.1125163628</v>
       </c>
     </row>
   </sheetData>
@@ -26313,28 +26313,28 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>615781.3273982126</v>
+      </c>
+      <c r="C2" t="n">
         <v>615781.3273982124</v>
       </c>
-      <c r="C2" t="n">
-        <v>615781.3273982123</v>
-      </c>
       <c r="D2" t="n">
-        <v>615781.3273982125</v>
+        <v>615781.3273982126</v>
       </c>
       <c r="E2" t="n">
-        <v>396564.1496463229</v>
+        <v>396564.1496463231</v>
       </c>
       <c r="F2" t="n">
-        <v>396564.1496463229</v>
+        <v>396564.1496463231</v>
       </c>
       <c r="G2" t="n">
-        <v>396564.1496463229</v>
+        <v>396564.149646323</v>
       </c>
       <c r="H2" t="n">
-        <v>396564.1496463228</v>
+        <v>396564.149646323</v>
       </c>
       <c r="I2" t="n">
-        <v>396564.1496463229</v>
+        <v>396564.1496463231</v>
       </c>
       <c r="J2" t="n">
         <v>396564.149646323</v>
@@ -26343,16 +26343,16 @@
         <v>396564.149646323</v>
       </c>
       <c r="L2" t="n">
-        <v>396564.149646323</v>
+        <v>396564.1496463231</v>
       </c>
       <c r="M2" t="n">
-        <v>396564.149646323</v>
+        <v>396564.1496463231</v>
       </c>
       <c r="N2" t="n">
+        <v>396564.1496463231</v>
+      </c>
+      <c r="O2" t="n">
         <v>396564.1496463229</v>
-      </c>
-      <c r="O2" t="n">
-        <v>396564.149646323</v>
       </c>
       <c r="P2" t="n">
         <v>396564.149646323</v>
@@ -26380,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>9.374401997774843e-11</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>86018.53382007603</v>
+        <v>86018.53382007605</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>295860.2172754402</v>
+        <v>295860.2172754403</v>
       </c>
       <c r="C4" t="n">
         <v>295860.2172754402</v>
@@ -26456,7 +26456,7 @@
         <v>17955.06337365307</v>
       </c>
       <c r="O4" t="n">
-        <v>17955.06337365307</v>
+        <v>17955.06337365306</v>
       </c>
       <c r="P4" t="n">
         <v>17955.06337365307</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>190870.4098274628</v>
+        <v>190870.409827463</v>
       </c>
       <c r="C6" t="n">
-        <v>271639.8413590104</v>
+        <v>271639.8413590105</v>
       </c>
       <c r="D6" t="n">
-        <v>271639.8413590106</v>
+        <v>271639.8413590107</v>
       </c>
       <c r="E6" t="n">
-        <v>-9224.978631729471</v>
+        <v>-16532.21789012556</v>
       </c>
       <c r="F6" t="n">
-        <v>336387.3641472233</v>
+        <v>329080.1248888272</v>
       </c>
       <c r="G6" t="n">
-        <v>336387.3641472233</v>
+        <v>329080.124888827</v>
       </c>
       <c r="H6" t="n">
-        <v>336387.3641472232</v>
+        <v>329080.1248888271</v>
       </c>
       <c r="I6" t="n">
-        <v>336387.3641472234</v>
+        <v>329080.1248888272</v>
       </c>
       <c r="J6" t="n">
-        <v>273327.4215481172</v>
+        <v>266020.1822897209</v>
       </c>
       <c r="K6" t="n">
-        <v>336387.3641472234</v>
+        <v>329080.1248888271</v>
       </c>
       <c r="L6" t="n">
-        <v>336387.3641472234</v>
+        <v>329080.1248888272</v>
       </c>
       <c r="M6" t="n">
-        <v>250368.8303271474</v>
+        <v>243061.5910687511</v>
       </c>
       <c r="N6" t="n">
-        <v>336387.3641472234</v>
+        <v>329080.1248888272</v>
       </c>
       <c r="O6" t="n">
-        <v>336387.3641472234</v>
+        <v>329080.124888827</v>
       </c>
       <c r="P6" t="n">
-        <v>336387.3641472234</v>
+        <v>329080.1248888271</v>
       </c>
     </row>
   </sheetData>
@@ -26776,7 +26776,7 @@
         <v>301.9048087062786</v>
       </c>
       <c r="O3" t="n">
-        <v>301.9048087062786</v>
+        <v>301.9048087062787</v>
       </c>
       <c r="P3" t="n">
         <v>301.9048087062787</v>
@@ -26974,7 +26974,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.205731028013953e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27426,28 +27426,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V2" t="n">
-        <v>86.73796959247585</v>
+        <v>259.542103988905</v>
       </c>
       <c r="W2" t="n">
-        <v>149.0801356085611</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27457,28 +27457,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>96.81477094728658</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27505,7 +27505,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>171.6831711038378</v>
@@ -27520,13 +27520,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>106.248274875304</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27539,7 +27539,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>34.05985351325981</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27548,7 +27548,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>12.23408043756322</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.9909793584588</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>153.7569742437599</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27636,10 +27636,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27660,10 +27660,10 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -27672,10 +27672,10 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3456529078365</v>
+        <v>163.6394926911697</v>
       </c>
       <c r="V5" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27694,10 +27694,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -27712,10 +27712,10 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,28 +27742,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>30.16556690500781</v>
+        <v>17.74777975671506</v>
       </c>
     </row>
     <row r="7">
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>46.64501259656927</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27800,7 +27800,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27815,7 +27815,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>86.16204325169439</v>
@@ -27839,7 +27839,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>117.5136203646585</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27861,10 +27861,10 @@
         <v>113.6687527430239</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>324.7626091628481</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27873,10 +27873,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27897,13 +27897,13 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>223.0958495641314</v>
@@ -27918,10 +27918,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>165.5929369622048</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -27931,7 +27931,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
@@ -27943,19 +27943,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -27985,22 +27985,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>170.8743902189926</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X9" t="n">
-        <v>9.250578701252635</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -28016,7 +28016,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>18.14994616795082</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28052,7 +28052,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>86.16204325169439</v>
@@ -28067,7 +28067,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U10" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -34128,7 +34128,7 @@
         <v>12.42967888306804</v>
       </c>
       <c r="I41" t="n">
-        <v>46.79069402069873</v>
+        <v>46.79069402069874</v>
       </c>
       <c r="J41" t="n">
         <v>103.0102241525006</v>
@@ -34149,22 +34149,22 @@
         <v>204.4927189463719</v>
       </c>
       <c r="P41" t="n">
-        <v>174.5298045144673</v>
+        <v>174.5298045144674</v>
       </c>
       <c r="Q41" t="n">
-        <v>131.0646147183121</v>
+        <v>131.0646147183122</v>
       </c>
       <c r="R41" t="n">
-        <v>76.23930830108856</v>
+        <v>76.23930830108857</v>
       </c>
       <c r="S41" t="n">
-        <v>27.65690785284151</v>
+        <v>27.65690785284152</v>
       </c>
       <c r="T41" t="n">
-        <v>5.312917789393907</v>
+        <v>5.312917789393908</v>
       </c>
       <c r="U41" t="n">
-        <v>0.0970950138552855</v>
+        <v>0.09709501385528552</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,16 +34201,16 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.6493801545757691</v>
+        <v>0.6493801545757693</v>
       </c>
       <c r="H42" t="n">
-        <v>6.271645177087034</v>
+        <v>6.271645177087036</v>
       </c>
       <c r="I42" t="n">
         <v>22.35804479570083</v>
       </c>
       <c r="J42" t="n">
-        <v>61.35218381454669</v>
+        <v>61.3521838145467</v>
       </c>
       <c r="K42" t="n">
         <v>104.8606541711232</v>
@@ -34219,25 +34219,25 @@
         <v>140.9980901415503</v>
       </c>
       <c r="M42" t="n">
-        <v>164.5381207449218</v>
+        <v>164.5381207449219</v>
       </c>
       <c r="N42" t="n">
         <v>168.8929552025813</v>
       </c>
       <c r="O42" t="n">
-        <v>154.5040580932971</v>
+        <v>154.5040580932972</v>
       </c>
       <c r="P42" t="n">
         <v>124.0031279382449</v>
       </c>
       <c r="Q42" t="n">
-        <v>82.8928070998824</v>
+        <v>82.89280709988242</v>
       </c>
       <c r="R42" t="n">
-        <v>40.31853275515171</v>
+        <v>40.31853275515172</v>
       </c>
       <c r="S42" t="n">
-        <v>12.06195155538763</v>
+        <v>12.06195155538764</v>
       </c>
       <c r="T42" t="n">
         <v>2.617457728311981</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.5444185075031254</v>
+        <v>0.5444185075031255</v>
       </c>
       <c r="H43" t="n">
-        <v>4.8403754576187</v>
+        <v>4.840375457618701</v>
       </c>
       <c r="I43" t="n">
         <v>16.37214929836672</v>
       </c>
       <c r="J43" t="n">
-        <v>38.49038848047096</v>
+        <v>38.49038848047097</v>
       </c>
       <c r="K43" t="n">
-        <v>63.25153205354491</v>
+        <v>63.25153205354492</v>
       </c>
       <c r="L43" t="n">
-        <v>80.94018428823739</v>
+        <v>80.9401842882374</v>
       </c>
       <c r="M43" t="n">
-        <v>85.34007568069444</v>
+        <v>85.34007568069447</v>
       </c>
       <c r="N43" t="n">
-        <v>83.3108794254556</v>
+        <v>83.31087942545561</v>
       </c>
       <c r="O43" t="n">
-        <v>76.95108140598724</v>
+        <v>76.95108140598725</v>
       </c>
       <c r="P43" t="n">
-        <v>65.84494385292342</v>
+        <v>65.84494385292344</v>
       </c>
       <c r="Q43" t="n">
-        <v>45.58762611464807</v>
+        <v>45.58762611464808</v>
       </c>
       <c r="R43" t="n">
         <v>24.47903580100416</v>
       </c>
       <c r="S43" t="n">
-        <v>9.487729808031736</v>
+        <v>9.487729808031737</v>
       </c>
       <c r="T43" t="n">
-        <v>2.32615180478608</v>
+        <v>2.326151804786081</v>
       </c>
       <c r="U43" t="n">
-        <v>0.02969555495471596</v>
+        <v>0.02969555495471597</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34783,19 +34783,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>232.285965523585</v>
+        <v>34.55702612384782</v>
       </c>
       <c r="M3" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
-        <v>99.8112771299739</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P3" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>70.09551364982758</v>
@@ -34944,7 +34944,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M5" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N5" t="n">
         <v>207.9338608153932</v>
@@ -35026,16 +35026,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="P6" t="n">
-        <v>113.3808631277494</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35263,13 +35263,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
-        <v>99.8112771299739</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P9" t="n">
-        <v>184.4883612256069</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="Q9" t="n">
         <v>70.09551364982758</v>
@@ -35488,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>60.60559248828884</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>231.4844522093429</v>
@@ -35497,7 +35497,7 @@
         <v>373.2840556651353</v>
       </c>
       <c r="M12" t="n">
-        <v>271.5478197803097</v>
+        <v>485.1417330183085</v>
       </c>
       <c r="N12" t="n">
         <v>516.8936174628016</v>
@@ -35509,7 +35509,7 @@
         <v>308.4914891638518</v>
       </c>
       <c r="Q12" t="n">
-        <v>152.98832074971</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35740,10 +35740,10 @@
         <v>516.8936174628016</v>
       </c>
       <c r="O15" t="n">
-        <v>405.7701329255823</v>
+        <v>189.2088021329886</v>
       </c>
       <c r="P15" t="n">
-        <v>91.93015837125802</v>
+        <v>308.4914891638518</v>
       </c>
       <c r="Q15" t="n">
         <v>152.98832074971</v>
@@ -35962,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>60.60559248828884</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>231.4844522093429</v>
@@ -35971,7 +35971,7 @@
         <v>373.2840556651353</v>
       </c>
       <c r="M18" t="n">
-        <v>271.5478197803097</v>
+        <v>488.1091505729034</v>
       </c>
       <c r="N18" t="n">
         <v>516.8936174628016</v>
@@ -35980,10 +35980,10 @@
         <v>405.7701329255823</v>
       </c>
       <c r="P18" t="n">
-        <v>308.4914891638518</v>
+        <v>305.5240716092566</v>
       </c>
       <c r="Q18" t="n">
-        <v>152.98832074971</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36199,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>60.60559248828883</v>
       </c>
       <c r="K21" t="n">
         <v>231.4844522093428</v>
@@ -36217,10 +36217,10 @@
         <v>405.7701329255822</v>
       </c>
       <c r="P21" t="n">
-        <v>152.5357508595472</v>
+        <v>244.9184791209679</v>
       </c>
       <c r="Q21" t="n">
-        <v>152.98832074971</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36439,10 +36439,10 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>75.52871390503797</v>
+        <v>231.4844522093428</v>
       </c>
       <c r="L24" t="n">
-        <v>373.2840556651353</v>
+        <v>217.3283173608305</v>
       </c>
       <c r="M24" t="n">
         <v>488.1091505729034</v>
@@ -36676,7 +36676,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>75.52871390503797</v>
+        <v>231.4844522093428</v>
       </c>
       <c r="L27" t="n">
         <v>373.2840556651353</v>
@@ -36691,10 +36691,10 @@
         <v>405.7701329255822</v>
       </c>
       <c r="P27" t="n">
-        <v>308.4914891638518</v>
+        <v>305.5240716092571</v>
       </c>
       <c r="Q27" t="n">
-        <v>152.98832074971</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36913,13 +36913,13 @@
         <v>60.60559248828883</v>
       </c>
       <c r="K30" t="n">
-        <v>14.92312141674913</v>
+        <v>231.4844522093428</v>
       </c>
       <c r="L30" t="n">
         <v>373.2840556651353</v>
       </c>
       <c r="M30" t="n">
-        <v>488.1091505729034</v>
+        <v>271.5478197803097</v>
       </c>
       <c r="N30" t="n">
         <v>516.8936174628016</v>
@@ -37071,7 +37071,7 @@
         <v>91.06093479788807</v>
       </c>
       <c r="K32" t="n">
-        <v>258.4411848848628</v>
+        <v>258.4411848848624</v>
       </c>
       <c r="L32" t="n">
         <v>373.4238170675629</v>
@@ -37153,7 +37153,7 @@
         <v>231.4844522093428</v>
       </c>
       <c r="L33" t="n">
-        <v>156.7227248725416</v>
+        <v>373.2840556651353</v>
       </c>
       <c r="M33" t="n">
         <v>488.1091505729034</v>
@@ -37162,7 +37162,7 @@
         <v>516.8936174628016</v>
       </c>
       <c r="O33" t="n">
-        <v>405.7701329255822</v>
+        <v>189.2088021329886</v>
       </c>
       <c r="P33" t="n">
         <v>308.4914891638518</v>
@@ -37384,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>60.60559248828883</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>231.4844522093428</v>
@@ -37396,16 +37396,16 @@
         <v>488.1091505729034</v>
       </c>
       <c r="N36" t="n">
-        <v>516.8936174628016</v>
+        <v>513.9261999082067</v>
       </c>
       <c r="O36" t="n">
-        <v>189.2088021329886</v>
+        <v>405.7701329255822</v>
       </c>
       <c r="P36" t="n">
         <v>308.4914891638518</v>
       </c>
       <c r="Q36" t="n">
-        <v>152.98832074971</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37621,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>60.60559248828883</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>231.4844522093428</v>
@@ -37633,16 +37633,16 @@
         <v>488.1091505729034</v>
       </c>
       <c r="N39" t="n">
-        <v>300.3322866702078</v>
+        <v>516.8936174628016</v>
       </c>
       <c r="O39" t="n">
         <v>405.7701329255822</v>
       </c>
       <c r="P39" t="n">
-        <v>308.4914891638518</v>
+        <v>305.5240716092571</v>
       </c>
       <c r="Q39" t="n">
-        <v>152.98832074971</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37779,13 +37779,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>91.06093479788807</v>
+        <v>91.06093479788808</v>
       </c>
       <c r="K41" t="n">
-        <v>258.4411848848628</v>
+        <v>258.4411848848623</v>
       </c>
       <c r="L41" t="n">
-        <v>373.4238170675629</v>
+        <v>373.423817067563</v>
       </c>
       <c r="M41" t="n">
         <v>432.2802359107712</v>
@@ -37794,13 +37794,13 @@
         <v>424.4951865620588</v>
       </c>
       <c r="O41" t="n">
-        <v>355.1946887874305</v>
+        <v>355.1946887874306</v>
       </c>
       <c r="P41" t="n">
         <v>265.0955169306804</v>
       </c>
       <c r="Q41" t="n">
-        <v>121.0739155037673</v>
+        <v>121.0739155037674</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37861,7 +37861,7 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>231.4844522093428</v>
+        <v>231.4844522093429</v>
       </c>
       <c r="L42" t="n">
         <v>373.2840556651353</v>
@@ -37870,13 +37870,13 @@
         <v>488.1091505729034</v>
       </c>
       <c r="N42" t="n">
-        <v>516.8936174628016</v>
+        <v>513.9261999082065</v>
       </c>
       <c r="O42" t="n">
-        <v>405.7701329255822</v>
+        <v>405.7701329255823</v>
       </c>
       <c r="P42" t="n">
-        <v>305.5240716092571</v>
+        <v>308.4914891638518</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37940,13 +37940,13 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>40.98204022766206</v>
+        <v>40.98204022766207</v>
       </c>
       <c r="L43" t="n">
         <v>108.5302095485535</v>
       </c>
       <c r="M43" t="n">
-        <v>124.923952642535</v>
+        <v>124.9239526425351</v>
       </c>
       <c r="N43" t="n">
         <v>127.4430518046842</v>
@@ -37955,7 +37955,7 @@
         <v>101.5362093200269</v>
       </c>
       <c r="P43" t="n">
-        <v>63.12350311781691</v>
+        <v>63.12350311781692</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38095,13 +38095,13 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>60.60559248828884</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>231.4844522093429</v>
       </c>
       <c r="L45" t="n">
-        <v>156.7227248725416</v>
+        <v>370.3166381105403</v>
       </c>
       <c r="M45" t="n">
         <v>488.1091505729034</v>
@@ -38116,7 +38116,7 @@
         <v>308.4914891638518</v>
       </c>
       <c r="Q45" t="n">
-        <v>152.98832074971</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
